--- a/SPARSE_definitions.xlsx
+++ b/SPARSE_definitions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://czuvpraze-my.sharepoint.com/personal/keil_fzp_czu_cz/Documents/SPARSE_1.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="8_{DAD7F058-A159-4E98-B339-67D41B788509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39EFB5C3-5161-43E6-A8A5-9EAC1E80D0F1}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="8_{DAD7F058-A159-4E98-B339-67D41B788509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4AFA51DD-297E-4E56-ABFB-1B5C17D830A6}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{04E39BB4-1478-4632-9491-2ED1C62F4B56}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="380">
   <si>
     <t>required - not allow zero lenght</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>Column name</t>
+  </si>
+  <si>
+    <t>Column description</t>
   </si>
   <si>
     <t>AutoNumber</t>
@@ -473,10 +476,10 @@
     <t>An identifier from the codebook table CB SHAPEFILE NAME defining the shapefile where the spatial data about Site are stored.</t>
   </si>
   <si>
-    <t>shapefileFID</t>
-  </si>
-  <si>
-    <t>An unique identifier of the object defining the Site within the shapefile. For one FID can be more than one SiteID.</t>
+    <t>objectID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An unique identifier of the object (point, line, or polygon) defining the Site within a shapefile. </t>
   </si>
   <si>
     <t>centroidDecimalLatitude</t>
@@ -755,15 +758,6 @@
     <t>Name of the shapefile in which the object is stored.</t>
   </si>
   <si>
-    <t>CB WDPA</t>
-  </si>
-  <si>
-    <t>defined by unique protected area status</t>
-  </si>
-  <si>
-    <t>An unique identifier (primary key) of the protected area as stated in the World Database on Protected Areas.</t>
-  </si>
-  <si>
     <t>EVENT</t>
   </si>
   <si>
@@ -824,57 +818,57 @@
     <t>The date-time or interval during which an Event occurred. For occurrences, this is the date-time when the event was recorded. Not suitable for a time in a geological context.</t>
   </si>
   <si>
+    <t>startTime</t>
+  </si>
+  <si>
+    <t>The hour of day in which the survey started.</t>
+  </si>
+  <si>
+    <t>endTime</t>
+  </si>
+  <si>
+    <t>The hour of day in which the survey ended.</t>
+  </si>
+  <si>
+    <t>eventTimeBlocks</t>
+  </si>
+  <si>
+    <t>The number of time blocks in which surveys were performed, either in sum or by site.</t>
+  </si>
+  <si>
+    <t>eventDuration</t>
+  </si>
+  <si>
+    <t>The duration, number of time units spent surveying in each time block of the event: The number of (months, days, hours) spent in each time block.</t>
+  </si>
+  <si>
+    <t>eventDurationUnitID</t>
+  </si>
+  <si>
+    <t>An identifier from the table CB DURATION UNIT defining temporal units.</t>
+  </si>
+  <si>
+    <t>studyDiurnalityID</t>
+  </si>
+  <si>
+    <t>An identifier from the table CB DIURNALITY defining periods of the day.</t>
+  </si>
+  <si>
+    <t>reportedWeather</t>
+  </si>
+  <si>
+    <t>A list of weather or climatic conditions present at the time of the Event.</t>
+  </si>
+  <si>
+    <t>recordedBy</t>
+  </si>
+  <si>
+    <t>The agent(s) who recorded the species in the field (separated by '|'). The primary collector or observer.</t>
+  </si>
+  <si>
     <t>eventRemarks</t>
   </si>
   <si>
-    <t>startTime</t>
-  </si>
-  <si>
-    <t>The hour of day in which the survey started.</t>
-  </si>
-  <si>
-    <t>endTime</t>
-  </si>
-  <si>
-    <t>The hour of day in which the survey ended.</t>
-  </si>
-  <si>
-    <t>eventTimeBlocks</t>
-  </si>
-  <si>
-    <t>The number of time blocks in which surveys were performed, either in sum or by site.</t>
-  </si>
-  <si>
-    <t>eventDuration</t>
-  </si>
-  <si>
-    <t>The duration, number of time units spent surveying in each time block of the event: The number of (months, days, hours) spent in each time block.</t>
-  </si>
-  <si>
-    <t>eventDurationUnitID</t>
-  </si>
-  <si>
-    <t>An identifier from the table CB DURATION UNIT defining temporal units.</t>
-  </si>
-  <si>
-    <t>studyDiurnalityID</t>
-  </si>
-  <si>
-    <t>An identifier from the table CB DIURNALITY defining periods of the day.</t>
-  </si>
-  <si>
-    <t>reportedWeather</t>
-  </si>
-  <si>
-    <t>A list of weather or climatic conditions present at the time of the Event.</t>
-  </si>
-  <si>
-    <t>recordedBy</t>
-  </si>
-  <si>
-    <t>The agent(s) who recorded the species in the field (separated by '|'). The primary collector or observer.</t>
-  </si>
-  <si>
     <t>Notes or comments about the event, explaining assumptions made in addition.</t>
   </si>
   <si>
@@ -1109,7 +1103,7 @@
     <t>verbatimMeasurementID</t>
   </si>
   <si>
-    <t xml:space="preserve"> A string (unique identifier) representing the taxonomic identification as stated in the original record (original data collection).</t>
+    <t>A string (unique identifier) representing the taxonomic identification as stated in the original record (original data collection).</t>
   </si>
   <si>
     <t>verbatimIdentification</t>
@@ -1215,16 +1209,13 @@
   </si>
   <si>
     <t>The taxonomic rank of the most specific name in the scientificName.</t>
-  </si>
-  <si>
-    <t>Column description</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1486,7 +1477,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1603,7 +1594,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1689,10 +1679,23 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normální" xfId="0" builtinId="0"/>
+    <cellStyle name="Špatně" xfId="1" builtinId="27"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1705,10 +1708,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2014,31 +2013,29 @@
   </sheetPr>
   <dimension ref="A1:N231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I136" sqref="I136"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J205" sqref="J205"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="31.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="43.109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="160" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.5546875" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="8.5546875" style="2"/>
+    <col min="1" max="1" width="35.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" style="3" customWidth="1"/>
+    <col min="5" max="7" width="16.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="232" style="2" customWidth="1"/>
+    <col min="11" max="11" width="20.5703125" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="8.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" s="1"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -2054,7 +2051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="41.45" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
@@ -2083,533 +2080,533 @@
         <v>10</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1">
       <c r="A4" s="11"/>
       <c r="B4" s="12">
         <v>1</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" s="15"/>
       <c r="G4" s="15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1">
       <c r="B5" s="1">
         <f>B4+1</f>
         <v>2</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1">
       <c r="A6" s="21"/>
       <c r="B6" s="1">
         <f t="shared" ref="B6:B20" si="0">B5+1</f>
         <v>3</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J6" s="22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1">
       <c r="A7" s="23"/>
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1">
       <c r="A8" s="24"/>
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1">
       <c r="A10" s="21"/>
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1">
       <c r="A11" s="21"/>
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1">
       <c r="A12" s="21"/>
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1">
       <c r="A13" s="17"/>
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1">
       <c r="A14" s="17"/>
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1">
       <c r="A15" s="17"/>
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I15" s="23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J15" s="17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1">
       <c r="A16" s="17"/>
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J16" s="17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15" customHeight="1">
       <c r="A17" s="17"/>
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H17" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I17" s="23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J17" s="17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15" customHeight="1">
       <c r="A18" s="17"/>
       <c r="B18" s="1">
         <f>B17+1</f>
         <v>15</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H18" s="19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15" customHeight="1">
       <c r="A19" s="17"/>
       <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F19" s="26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H19" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15" customHeight="1">
       <c r="A20" s="17"/>
       <c r="B20" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F20" s="26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H20" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I20" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" customFormat="1" ht="15" customHeight="1"/>
+    <row r="22" spans="1:10" ht="15" customHeight="1">
       <c r="C22"/>
       <c r="D22"/>
       <c r="E22" s="19"/>
@@ -2619,9 +2616,9 @@
       <c r="I22" s="17"/>
       <c r="J22" s="17"/>
     </row>
-    <row r="23" spans="1:10" ht="41.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="41.1" customHeight="1">
       <c r="A23" s="27" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B23" s="28" t="s">
         <v>3</v>
@@ -2646,159 +2643,159 @@
       </c>
       <c r="I23" s="30"/>
       <c r="J23" s="30" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15" customHeight="1">
       <c r="A24" s="13"/>
       <c r="B24" s="15">
         <v>1</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F24" s="14"/>
       <c r="G24" s="14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I24" s="31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15" customHeight="1">
       <c r="A25" s="32"/>
       <c r="B25" s="1">
         <f>B24+1</f>
         <v>2</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H25" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I25" s="23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J25" s="17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15" customHeight="1">
       <c r="B26" s="1">
         <f>B25+1</f>
         <v>3</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H26" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I26" s="23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15" customHeight="1">
       <c r="B27" s="1">
         <f t="shared" ref="B27:B28" si="1">B26+1</f>
         <v>4</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H27" s="19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I27" s="33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J27" s="17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15" customHeight="1">
       <c r="B28" s="1">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F28" s="26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H28" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I28" s="16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J28" s="17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15" customHeight="1">
       <c r="C29" s="17"/>
       <c r="E29" s="20"/>
       <c r="F29" s="20"/>
@@ -2807,14 +2804,14 @@
       <c r="I29" s="16"/>
       <c r="J29" s="17"/>
     </row>
-    <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="15" customHeight="1">
       <c r="D30" s="22"/>
       <c r="E30" s="35"/>
       <c r="G30" s="34"/>
     </row>
-    <row r="31" spans="1:10" s="36" customFormat="1" ht="41.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" s="36" customFormat="1" ht="41.45" customHeight="1">
       <c r="A31" s="27" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B31" s="28" t="s">
         <v>3</v>
@@ -2839,98 +2836,98 @@
       </c>
       <c r="I31" s="30"/>
       <c r="J31" s="30" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15" customHeight="1">
       <c r="A32" s="13"/>
       <c r="B32" s="15">
         <v>1</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F32" s="14"/>
       <c r="G32" s="14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H32" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I32" s="31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J32" s="13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15" customHeight="1">
       <c r="B33" s="1">
         <f>B32+1</f>
         <v>2</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H33" s="19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I33" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="J33" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J33" s="40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15" customHeight="1">
       <c r="B34" s="1">
         <f>B33+1</f>
         <v>3</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E34" s="20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G34" s="19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H34" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I34" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="J34" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J34" s="40" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15" customHeight="1">
       <c r="C35" s="18"/>
       <c r="E35" s="20"/>
       <c r="F35" s="12"/>
@@ -2939,7 +2936,7 @@
       <c r="I35" s="23"/>
       <c r="J35" s="13"/>
     </row>
-    <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="15" customHeight="1">
       <c r="C36" s="18"/>
       <c r="D36" s="18"/>
       <c r="E36" s="19"/>
@@ -2949,9 +2946,9 @@
       <c r="I36" s="17"/>
       <c r="J36" s="17"/>
     </row>
-    <row r="37" spans="1:10" ht="41.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="41.1" customHeight="1">
       <c r="A37" s="27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B37" s="28" t="s">
         <v>3</v>
@@ -2976,128 +2973,128 @@
       </c>
       <c r="I37" s="30"/>
       <c r="J37" s="30" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="15" customHeight="1">
       <c r="A38" s="13"/>
       <c r="B38" s="15">
         <v>1</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F38" s="14"/>
       <c r="G38" s="14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H38" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I38" s="31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J38" s="13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" customFormat="1" ht="15" customHeight="1">
       <c r="B39" s="1">
         <f>B38+1</f>
         <v>2</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G39" s="19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H39" s="20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I39" s="16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J39" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" customFormat="1" ht="15" customHeight="1">
       <c r="B40" s="1">
         <f>B39+1</f>
         <v>3</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E40" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F40" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G40" s="19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H40" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I40" s="16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J40" s="13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" customFormat="1" ht="15" customHeight="1">
       <c r="B41" s="1">
         <f>B40+1</f>
         <v>4</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E41" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F41" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G41" s="19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H41" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I41" s="16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J41" s="17" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="15" customHeight="1">
       <c r="E42" s="35"/>
       <c r="F42" s="35"/>
       <c r="G42" s="35"/>
@@ -3105,7 +3102,7 @@
       <c r="I42" s="34"/>
       <c r="J42"/>
     </row>
-    <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="15" customHeight="1">
       <c r="C43" s="38"/>
       <c r="D43" s="22"/>
       <c r="E43" s="35"/>
@@ -3114,9 +3111,9 @@
       <c r="H43" s="34"/>
       <c r="J43"/>
     </row>
-    <row r="44" spans="1:10" s="36" customFormat="1" ht="41.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" s="36" customFormat="1" ht="41.45" customHeight="1">
       <c r="A44" s="27" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B44" s="28" t="s">
         <v>3</v>
@@ -3141,248 +3138,248 @@
       </c>
       <c r="I44" s="30"/>
       <c r="J44" s="30" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="15" customHeight="1">
       <c r="A45" s="13"/>
       <c r="B45" s="15">
         <v>1</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F45" s="14"/>
       <c r="G45" s="14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H45" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I45" s="31" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J45" s="13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="15" customHeight="1">
       <c r="B46" s="1">
         <f>B45+1</f>
         <v>2</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E46" s="20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G46" s="19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H46" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I46" s="32" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="15" customHeight="1">
       <c r="B47" s="1">
         <f t="shared" ref="B47:B52" si="2">B46+1</f>
         <v>3</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E47" s="20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G47" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H47" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I47" s="32" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="15" customHeight="1">
       <c r="B48" s="1">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E48" s="20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G48" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H48" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I48" s="32" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="15" customHeight="1">
       <c r="B49" s="1">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E49" s="20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G49" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H49" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I49" s="32" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="15" customHeight="1">
       <c r="B50" s="1">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E50" s="20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G50" s="19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H50" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I50" s="32" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J50" s="22" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="15" customHeight="1">
       <c r="B51" s="1">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E51" s="20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G51" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H51" s="19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I51" s="33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J51" s="17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="15" customHeight="1">
       <c r="B52" s="1">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D52" s="25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E52" s="20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F52" s="26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G52" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H52" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I52" s="16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J52" s="17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="15" customHeight="1">
       <c r="C53" s="38"/>
       <c r="D53" s="22"/>
       <c r="E53" s="35"/>
@@ -3390,7 +3387,7 @@
       <c r="G53" s="35"/>
       <c r="H53" s="34"/>
     </row>
-    <row r="54" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" ht="15" customHeight="1">
       <c r="C54" s="38"/>
       <c r="D54" s="22"/>
       <c r="E54" s="35"/>
@@ -3398,9 +3395,9 @@
       <c r="G54" s="35"/>
       <c r="H54" s="34"/>
     </row>
-    <row r="55" spans="1:10" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" ht="41.45" customHeight="1">
       <c r="A55" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B55" s="9" t="s">
         <v>3</v>
@@ -3425,1336 +3422,1336 @@
       </c>
       <c r="I55" s="10"/>
       <c r="J55" s="10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="15" customHeight="1">
       <c r="A56" s="13"/>
       <c r="B56" s="15">
         <v>1</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F56" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G56" s="14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H56" s="15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I56" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="J56" s="11" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J56" s="71" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="15" customHeight="1">
       <c r="A57" s="17"/>
       <c r="B57" s="1">
         <f>B56+1</f>
         <v>2</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D57" s="25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E57" s="20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F57" s="26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G57" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H57" s="19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I57" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="J57" s="17" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J57" s="48" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="15" customHeight="1">
       <c r="A58" s="21"/>
       <c r="B58" s="1">
         <f t="shared" ref="B58:B61" si="3">B57+1</f>
         <v>3</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D58" s="25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E58" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F58" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G58" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H58" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I58" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="J58" s="17" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J58" s="48" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="15" customHeight="1">
       <c r="A59" s="21"/>
       <c r="B59" s="1">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E59" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F59" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G59" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H59" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I59" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="J59" s="17" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J59" s="48" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="15" customHeight="1">
       <c r="A60"/>
       <c r="B60" s="1">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E60" s="20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F60" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G60" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H60" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I60" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="J60" s="17" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J60" s="48" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="15" customHeight="1">
       <c r="B61" s="1">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E61" s="20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F61" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G61" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H61" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I61" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="J61" s="17" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J61" s="48" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="15" customHeight="1">
       <c r="A62" s="17"/>
       <c r="B62" s="1">
         <f>B61+1</f>
         <v>7</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E62" s="20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F62" s="26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G62" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H62" s="19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I62" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="J62" s="17" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J62" s="48" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="15" customHeight="1">
       <c r="A63" s="17"/>
       <c r="B63" s="1">
         <f>B62+1</f>
         <v>8</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E63" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F63" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G63" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H63" s="19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I63" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="J63" s="3" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J63" s="45" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="15" customHeight="1">
       <c r="A64" s="3"/>
       <c r="B64" s="1">
         <f>B63+1</f>
         <v>9</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E64" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F64" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G64" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H64" s="19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I64" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="J64" s="17" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J64" s="48" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="15" customHeight="1">
       <c r="A65"/>
       <c r="B65" s="1">
         <f>B64+1</f>
         <v>10</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E65" s="20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F65" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G65" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H65" s="19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I65" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="J65" s="17" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J65" s="48" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="15" customHeight="1">
       <c r="A66"/>
       <c r="B66" s="1">
         <f>B65+1</f>
         <v>11</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E66" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F66" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G66" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H66" s="19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I66" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="J66" s="17" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J66" s="48" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="15" customHeight="1">
       <c r="A67" s="17"/>
       <c r="B67" s="1">
         <f t="shared" ref="B67:B98" si="4">B66+1</f>
         <v>12</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E67" s="20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F67" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G67" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H67" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I67" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="J67" s="40" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J67" s="72" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="15" customHeight="1">
       <c r="A68" s="17"/>
       <c r="B68" s="1">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E68" s="20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F68" s="26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G68" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H68" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I68" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="J68" s="3" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J68" s="45" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="15" customHeight="1">
       <c r="A69" s="17"/>
       <c r="B69" s="1">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E69" s="20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F69" s="26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G69" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H69" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I69" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="J69" s="3" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J69" s="45" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="15" customHeight="1">
       <c r="A70" s="17"/>
       <c r="B70" s="1">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E70" s="20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F70" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G70" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H70" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I70" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="J70" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J70" s="45" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="15" customHeight="1">
       <c r="A71" s="21"/>
       <c r="B71" s="1">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E71" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F71" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G71" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H71" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I71" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="J71" s="17" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J71" s="48" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="15" customHeight="1">
       <c r="B72" s="1">
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E72" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F72" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G72" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H72" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I72" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="J72" s="17" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J72" s="48" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="15" customHeight="1">
       <c r="B73" s="1">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E73" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F73" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G73" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H73" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I73" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="J73" s="3" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J73" s="45" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="15" customHeight="1">
       <c r="B74" s="1">
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E74" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F74" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G74" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H74" s="19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I74" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="J74" s="25" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J74" s="73" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="15" customHeight="1">
       <c r="B75" s="1">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E75" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F75" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G75" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H75" s="19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I75" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="J75" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J75" s="45" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="15" customHeight="1">
       <c r="A76" s="25"/>
       <c r="B76" s="1">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E76" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F76" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G76" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H76" s="19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I76" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="J76" s="3" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J76" s="45" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="15" customHeight="1">
       <c r="A77" s="21"/>
       <c r="B77" s="1">
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="C77" s="18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E77" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F77" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G77" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H77" s="19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I77" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="J77" s="3" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J77" s="45" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="15" customHeight="1">
       <c r="A78" s="17"/>
       <c r="B78" s="1">
         <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D78" s="18" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E78" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F78" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G78" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H78" s="19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I78" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="J78" s="3" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J78" s="45" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="15" customHeight="1">
       <c r="A79" s="17"/>
       <c r="B79" s="1">
         <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D79" s="18" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E79" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F79" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G79" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H79" s="19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I79" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="J79" s="3" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J79" s="45" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="15" customHeight="1">
       <c r="A80" s="17"/>
       <c r="B80" s="1">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="C80" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="D80" s="42" t="s">
-        <v>20</v>
+      <c r="C80" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="D80" s="41" t="s">
+        <v>21</v>
       </c>
       <c r="E80" s="20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F80" s="26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G80" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H80" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I80" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="J80" s="18" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J80" s="74" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="15" customHeight="1">
       <c r="A81" s="17"/>
       <c r="B81" s="1">
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E81" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F81" s="26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G81" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H81" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I81" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="J81" s="3" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J81" s="45" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1">
       <c r="A82"/>
       <c r="B82" s="1">
         <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D82" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E82" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F82" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G82" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H82" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I82" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="J82" s="43" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J82" s="75" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="15" customHeight="1">
       <c r="A83" s="17"/>
       <c r="B83" s="1">
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E83" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F83" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G83" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H83" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I83" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="J83" s="17" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J83" s="48" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="15" customHeight="1">
       <c r="A84" s="17"/>
       <c r="B84" s="1">
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D84" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E84" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F84" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G84" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H84" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I84" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="J84" s="17" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J84" s="48" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="15" customHeight="1">
       <c r="A85" s="25"/>
       <c r="B85" s="1">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D85" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E85" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F85" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G85" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H85" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I85" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="J85" s="17" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J85" s="48" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="15" customHeight="1">
       <c r="A86" s="25"/>
       <c r="B86" s="1">
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D86" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E86" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F86" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G86" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H86" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I86" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="J86" s="17" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J86" s="48" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="15" customHeight="1">
       <c r="A87" s="25"/>
       <c r="B87" s="1">
         <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D87" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E87" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F87" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G87" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H87" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I87" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="J87" s="17" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J87" s="48" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="15" customHeight="1">
       <c r="A88" s="25"/>
       <c r="B88" s="1">
         <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D88" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E88" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F88" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G88" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H88" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I88" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="J88" s="17" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J88" s="48" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="15" customHeight="1">
       <c r="A89" s="25"/>
       <c r="B89" s="1">
         <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D89" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E89" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F89" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G89" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H89" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I89" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="J89" s="17" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J89" s="48" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="15" customHeight="1">
       <c r="A90" s="25"/>
       <c r="B90" s="1">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D90" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E90" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F90" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G90" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H90" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I90" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="J90" s="17" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J90" s="48" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="15" customHeight="1">
       <c r="B91" s="1">
         <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D91" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E91" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F91" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G91" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H91" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I91" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="J91" s="17" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J91" s="48" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="15" customHeight="1">
       <c r="A92" s="25"/>
       <c r="B92" s="1">
         <f t="shared" si="4"/>
         <v>37</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D92" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E92" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F92" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G92" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H92" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I92" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="J92" s="17" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J92" s="48" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="15" customHeight="1">
       <c r="A93" s="25"/>
       <c r="B93" s="1">
         <f t="shared" si="4"/>
         <v>38</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D93" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E93" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F93" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G93" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H93" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I93" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="J93" s="17" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J93" s="48" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="15" customHeight="1">
       <c r="A94" s="25"/>
       <c r="B94" s="1">
         <f t="shared" si="4"/>
         <v>39</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D94" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E94" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F94" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G94" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H94" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I94" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="J94" s="17" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J94" s="48" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="15" customHeight="1">
       <c r="A95" s="25"/>
       <c r="B95" s="1">
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D95" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E95" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F95" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G95" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H95" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I95" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="J95" s="17" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J95" s="48" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="15" customHeight="1">
       <c r="A96" s="25"/>
       <c r="B96" s="1">
         <f t="shared" si="4"/>
         <v>41</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D96" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E96" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F96" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G96" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H96" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I96" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="J96" s="17" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J96" s="48" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="15" customHeight="1">
       <c r="A97" s="25"/>
       <c r="B97" s="1">
         <f t="shared" si="4"/>
         <v>42</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D97" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E97" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F97" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G97" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H97" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I97" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="J97" s="17" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J97" s="48" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="15" customHeight="1">
       <c r="A98" s="25"/>
       <c r="B98" s="1">
         <f t="shared" si="4"/>
         <v>43</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D98" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E98" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F98" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G98" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H98" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I98" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="J98" s="17" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J98" s="48" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="15" customHeight="1">
       <c r="C99" s="38"/>
       <c r="D99" s="22"/>
       <c r="E99" s="35"/>
@@ -4764,7 +4761,7 @@
       <c r="I99" s="35"/>
       <c r="J99" s="35"/>
     </row>
-    <row r="100" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" ht="15" customHeight="1">
       <c r="C100" s="38"/>
       <c r="D100" s="22"/>
       <c r="E100" s="35"/>
@@ -4772,11 +4769,11 @@
       <c r="G100" s="35"/>
       <c r="H100" s="34"/>
       <c r="I100" s="35"/>
-      <c r="J100" s="45"/>
-    </row>
-    <row r="101" spans="1:10" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J100" s="44"/>
+    </row>
+    <row r="101" spans="1:10" ht="41.45" customHeight="1">
       <c r="A101" s="27" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B101" s="28" t="s">
         <v>3</v>
@@ -4801,314 +4798,314 @@
       </c>
       <c r="I101" s="30"/>
       <c r="J101" s="30" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="15" customHeight="1">
       <c r="A102" s="13"/>
       <c r="B102" s="15">
         <v>1</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D102" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E102" s="14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F102" s="14"/>
       <c r="G102" s="14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H102" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I102" s="31" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J102" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="B103" s="1">
         <f>B102+1</f>
         <v>2</v>
       </c>
       <c r="C103" s="18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E103" s="20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G103" s="19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H103" s="19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I103" s="23" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J103" s="22" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="B104" s="1">
         <f>B103+1</f>
         <v>3</v>
       </c>
       <c r="C104" s="18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E104" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G104" s="19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H104" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I104" s="23" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J104" s="22" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="B105" s="1">
         <f t="shared" ref="B105:B111" si="5">B104+1</f>
         <v>4</v>
       </c>
       <c r="C105" s="18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E105" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G105" s="19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H105" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I105" s="23" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J105" s="22" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="B106" s="1">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="C106" s="18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E106" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G106" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H106" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I106" s="32" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J106" s="22" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="B107" s="1">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="C107" s="18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E107" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G107" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H107" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I107" s="32" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J107" s="22" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="B108" s="1">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="C108" s="18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E108" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G108" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H108" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I108" s="32" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J108" s="22" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="B109" s="1">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D109" s="18" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E109" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G109" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H109" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I109" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="J109" s="46" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J109" s="45" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="B110" s="1">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D110" s="18" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E110" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G110" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H110" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I110" s="32" t="s">
-        <v>214</v>
-      </c>
-      <c r="J110" s="46" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J110" s="45" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="B111" s="1">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D111" s="18" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E111" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G111" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H111" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I111" s="32" t="s">
-        <v>216</v>
-      </c>
-      <c r="J111" s="46" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J111" s="45" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="C112" s="18"/>
       <c r="H112" s="19"/>
       <c r="I112"/>
-      <c r="J112" s="47"/>
-    </row>
-    <row r="113" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J112" s="46"/>
+    </row>
+    <row r="113" spans="1:10" ht="15" customHeight="1">
       <c r="B113" s="18"/>
       <c r="C113" s="18"/>
       <c r="E113" s="35"/>
@@ -5117,9 +5114,9 @@
       <c r="I113" s="32"/>
       <c r="J113"/>
     </row>
-    <row r="114" spans="1:10" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" ht="41.45" customHeight="1">
       <c r="A114" s="27" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B114" s="28" t="s">
         <v>3</v>
@@ -5144,68 +5141,68 @@
       </c>
       <c r="I114" s="30"/>
       <c r="J114" s="30" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="15" customHeight="1">
       <c r="A115" s="13"/>
       <c r="B115" s="15">
         <v>1</v>
       </c>
       <c r="C115" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D115" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E115" s="14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F115" s="14"/>
       <c r="G115" s="14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H115" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I115" s="31" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J115" s="13" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="B116" s="1">
         <f>B115+1</f>
         <v>2</v>
       </c>
       <c r="C116" s="18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E116" s="20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G116" s="19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H116" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="I116" s="48" t="s">
-        <v>221</v>
+        <v>29</v>
+      </c>
+      <c r="I116" s="47" t="s">
+        <v>222</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="15" customHeight="1">
       <c r="C117" s="18"/>
       <c r="E117" s="35"/>
       <c r="G117" s="35"/>
@@ -5213,16 +5210,16 @@
       <c r="I117" s="19"/>
       <c r="J117"/>
     </row>
-    <row r="118" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" ht="15" customHeight="1">
       <c r="E118" s="35"/>
       <c r="G118" s="35"/>
       <c r="H118" s="19"/>
       <c r="I118" s="32"/>
       <c r="J118"/>
     </row>
-    <row r="119" spans="1:10" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" ht="41.45" customHeight="1">
       <c r="A119" s="27" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B119" s="28" t="s">
         <v>3</v>
@@ -5247,128 +5244,128 @@
       </c>
       <c r="I119" s="30"/>
       <c r="J119" s="30" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="15" customHeight="1">
       <c r="A120" s="13"/>
       <c r="B120" s="15">
         <v>1</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D120" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E120" s="14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F120" s="14"/>
       <c r="G120" s="14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H120" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I120" s="31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J120" s="13" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="B121" s="1">
         <f>B120+1</f>
         <v>2</v>
       </c>
       <c r="C121" s="18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E121" s="20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G121" s="19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H121" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="I121" s="48" t="s">
-        <v>226</v>
-      </c>
-      <c r="J121" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="I121" s="47" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="122" spans="1:10" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J121" s="40" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="15.95" customHeight="1">
       <c r="B122" s="1">
         <f t="shared" ref="B122:B123" si="6">B121+1</f>
         <v>3</v>
       </c>
       <c r="C122" s="25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E122" s="20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G122" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H122" s="19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I122" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="J122" s="49" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="J122" s="48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="15.95" customHeight="1">
       <c r="B123" s="1">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="C123" s="18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D123" s="25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E123" s="20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F123" s="26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G123" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H123" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I123" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="J123" s="49" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="124" spans="1:10" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J123" s="48" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="15.95" customHeight="1">
       <c r="C124" s="18"/>
       <c r="D124" s="25"/>
       <c r="E124" s="20"/>
@@ -5378,2869 +5375,2811 @@
       <c r="I124" s="35"/>
       <c r="J124" s="17"/>
     </row>
-    <row r="125" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" ht="15" customHeight="1">
       <c r="C125" s="18"/>
       <c r="E125" s="35"/>
       <c r="H125" s="19"/>
       <c r="I125" s="19"/>
       <c r="J125"/>
     </row>
-    <row r="126" spans="1:10" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="27" t="s">
-        <v>228</v>
-      </c>
-      <c r="B126" s="28" t="s">
+    <row r="126" spans="1:10" ht="45" customHeight="1">
+      <c r="A126" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B126" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C126" s="29" t="s">
+      <c r="C126" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D126" s="29" t="s">
+      <c r="D126" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E126" s="28" t="s">
+      <c r="E126" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F126" s="28" t="s">
+      <c r="F126" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G126" s="28" t="s">
+      <c r="G126" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H126" s="28" t="s">
+      <c r="H126" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I126" s="30"/>
-      <c r="J126" s="30" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I126" s="69"/>
+      <c r="J126" s="70" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="15" customHeight="1">
       <c r="A127" s="13"/>
       <c r="B127" s="15">
         <v>1</v>
       </c>
       <c r="C127" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D127" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E127" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F127" s="15"/>
+      <c r="G127" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H127" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I127" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="J127" s="13" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" ht="15" customHeight="1">
+      <c r="A128" s="17"/>
+      <c r="B128" s="1">
+        <f>B127+1</f>
+        <v>2</v>
+      </c>
+      <c r="C128" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D128" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="F127" s="14"/>
-      <c r="G127" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H127" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="I127" s="48" t="s">
-        <v>158</v>
-      </c>
-      <c r="J127" s="13" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="B129" s="9" t="s">
+      <c r="E128" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F128" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G128" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H128" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="I128" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J128" s="25" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" ht="15" customHeight="1">
+      <c r="A129" s="17"/>
+      <c r="B129" s="1">
+        <f t="shared" ref="B129:B162" si="7">B128+1</f>
         <v>3</v>
       </c>
-      <c r="C129" s="10" t="s">
+      <c r="C129" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D129" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E129" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F129" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G129" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H129" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="I129" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="J129" s="25" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" ht="15" customHeight="1">
+      <c r="A130" s="17"/>
+      <c r="B130" s="1">
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="D129" s="10" t="s">
+      <c r="C130" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D130" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="E130" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F130" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G130" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H130" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I130" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="J130" s="25" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="15" customHeight="1">
+      <c r="B131" s="1">
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="E129" s="9" t="s">
+      <c r="C131" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D131" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="E131" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F131" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G131" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H131" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I131" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="J131" s="25" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="15" customHeight="1">
+      <c r="B132" s="1">
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="F129" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G129" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H129" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I129" s="70"/>
-      <c r="J129" s="71" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="13"/>
-      <c r="B130" s="15">
-        <v>1</v>
-      </c>
-      <c r="C130" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D130" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E130" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F130" s="15"/>
-      <c r="G130" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H130" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I130" s="39" t="s">
-        <v>233</v>
-      </c>
-      <c r="J130" s="13" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="17"/>
-      <c r="B131" s="1">
-        <f>B130+1</f>
-        <v>2</v>
-      </c>
-      <c r="C131" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D131" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E131" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F131" s="26" t="s">
+      <c r="C132" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="G131" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H131" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="I131" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J131" s="25" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="17"/>
-      <c r="B132" s="1">
-        <f t="shared" ref="B132:B165" si="7">B131+1</f>
-        <v>3</v>
-      </c>
-      <c r="C132" s="25" t="s">
-        <v>31</v>
-      </c>
       <c r="D132" s="25" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="E132" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F132" s="26" t="s">
-        <v>32</v>
+        <v>21</v>
+      </c>
+      <c r="F132" s="20" t="s">
+        <v>21</v>
       </c>
       <c r="G132" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H132" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="I132" s="16" t="s">
-        <v>106</v>
+        <v>21</v>
+      </c>
+      <c r="H132" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I132" s="23" t="s">
+        <v>239</v>
       </c>
       <c r="J132" s="25" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" ht="15" customHeight="1">
       <c r="A133" s="17"/>
       <c r="B133" s="1">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C133" s="25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D133" s="25" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E133" s="20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F133" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G133" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H133" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I133" s="23" t="s">
-        <v>237</v>
+        <v>26</v>
+      </c>
+      <c r="I133" s="16" t="s">
+        <v>241</v>
       </c>
       <c r="J133" s="25" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" ht="15" customHeight="1">
+      <c r="A134" s="17"/>
       <c r="B134" s="1">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C134" s="25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D134" s="25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E134" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F134" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G134" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H134" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I134" s="23" t="s">
-        <v>239</v>
+        <v>26</v>
+      </c>
+      <c r="I134" s="16" t="s">
+        <v>243</v>
       </c>
       <c r="J134" s="25" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" ht="15" customHeight="1">
+      <c r="A135" s="17"/>
       <c r="B135" s="1">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C135" s="25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D135" s="25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E135" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F135" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G135" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H135" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I135" s="23" t="s">
-        <v>241</v>
+        <v>26</v>
+      </c>
+      <c r="I135" s="16" t="s">
+        <v>245</v>
       </c>
       <c r="J135" s="25" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" ht="15" customHeight="1">
       <c r="A136" s="17"/>
       <c r="B136" s="1">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C136" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D136" s="25" t="s">
-        <v>150</v>
+        <v>19</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="E136" s="20" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F136" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G136" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H136" s="7" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I136" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="J136" s="25" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>247</v>
+      </c>
+      <c r="J136" s="49" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" ht="15" customHeight="1">
       <c r="A137" s="17"/>
       <c r="B137" s="1">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C137" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D137" s="25" t="s">
-        <v>52</v>
+        <v>56</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="E137" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F137" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G137" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H137" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="H137" s="26" t="s">
+        <v>26</v>
       </c>
       <c r="I137" s="16" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="J137" s="25" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" ht="15" customHeight="1">
       <c r="A138" s="17"/>
       <c r="B138" s="1">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C138" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D138" s="25" t="s">
-        <v>52</v>
+        <v>56</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="E138" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F138" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G138" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H138" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="H138" s="26" t="s">
+        <v>26</v>
       </c>
       <c r="I138" s="16" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="J138" s="25" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" ht="15" customHeight="1">
       <c r="A139" s="17"/>
       <c r="B139" s="1">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C139" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>19</v>
+        <v>32</v>
+      </c>
+      <c r="D139" s="25" t="s">
+        <v>151</v>
       </c>
       <c r="E139" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F139" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G139" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H139" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="H139" s="19" t="s">
+        <v>29</v>
       </c>
       <c r="I139" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="J139" s="50" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+      <c r="J139" s="17" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" ht="15" customHeight="1">
       <c r="A140" s="17"/>
       <c r="B140" s="1">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C140" s="25" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="E140" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F140" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G140" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H140" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I140" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="J140" s="25" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>255</v>
+      </c>
+      <c r="J140" s="17" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" ht="15" customHeight="1">
       <c r="A141" s="17"/>
       <c r="B141" s="1">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C141" s="25" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="E141" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F141" s="20" t="s">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="F141" s="26" t="s">
+        <v>33</v>
       </c>
       <c r="G141" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H141" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I141" s="16" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="J141" s="25" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" ht="15" customHeight="1">
       <c r="A142" s="17"/>
       <c r="B142" s="1">
         <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="C142" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D142" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C142" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D142" s="25" t="s">
-        <v>150</v>
-      </c>
       <c r="E142" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F142" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="F142" s="26" t="s">
+        <v>33</v>
       </c>
       <c r="G142" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H142" s="19" t="s">
-        <v>28</v>
+        <v>21</v>
+      </c>
+      <c r="H142" s="26" t="s">
+        <v>44</v>
       </c>
       <c r="I142" s="16" t="s">
-        <v>256</v>
-      </c>
-      <c r="J142" s="17" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>259</v>
+      </c>
+      <c r="J142" s="25" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" ht="15" customHeight="1">
       <c r="A143" s="17"/>
       <c r="B143" s="1">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C143" s="25" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>127</v>
+        <v>25</v>
       </c>
       <c r="E143" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F143" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G143" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H143" s="26" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="H143" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="I143" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="J143" s="17" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="17"/>
+        <v>261</v>
+      </c>
+      <c r="J143" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" ht="15" customHeight="1">
+      <c r="A144"/>
       <c r="B144" s="1">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C144" s="25" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E144" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F144" s="26" t="s">
-        <v>32</v>
+        <v>21</v>
+      </c>
+      <c r="F144" s="20" t="s">
+        <v>21</v>
       </c>
       <c r="G144" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H144" s="26" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="H144" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I144" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="J144" s="25" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+      <c r="J144" s="50" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" ht="15" customHeight="1">
       <c r="A145" s="17"/>
       <c r="B145" s="1">
         <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="C145" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E145" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F145" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G145" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H145" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C145" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E145" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F145" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="G145" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H145" s="26" t="s">
-        <v>43</v>
-      </c>
       <c r="I145" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="J145" s="25" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>265</v>
+      </c>
+      <c r="J145" s="17" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" ht="15" customHeight="1">
       <c r="A146" s="17"/>
       <c r="B146" s="1">
-        <f t="shared" si="7"/>
-        <v>17</v>
+        <f>B145+1</f>
+        <v>20</v>
       </c>
       <c r="C146" s="25" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E146" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F146" s="20" t="s">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="F146" s="26" t="s">
+        <v>33</v>
       </c>
       <c r="G146" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H146" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="H146" s="26" t="s">
+        <v>44</v>
       </c>
       <c r="I146" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="J146" s="11" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147"/>
+        <v>267</v>
+      </c>
+      <c r="J146" s="50" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" ht="15" customHeight="1">
+      <c r="A147" s="17"/>
       <c r="B147" s="1">
         <f t="shared" si="7"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C147" s="25" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E147" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F147" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G147" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H147" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="H147" s="19" t="s">
+        <v>29</v>
       </c>
       <c r="I147" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="J147" s="51" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="17"/>
+        <v>269</v>
+      </c>
+      <c r="J147" s="50" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" s="51" customFormat="1" ht="15" customHeight="1">
       <c r="B148" s="1">
         <f t="shared" si="7"/>
+        <v>22</v>
+      </c>
+      <c r="C148" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C148" s="25" t="s">
+      <c r="D148" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E148" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F148" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G148" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H148" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="I148" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="J148" s="50" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" s="51" customFormat="1" ht="15" customHeight="1">
+      <c r="A149" s="52"/>
+      <c r="B149" s="1">
+        <f t="shared" si="7"/>
         <v>23</v>
       </c>
-      <c r="D148" s="3" t="s">
+      <c r="C149" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E148" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F148" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G148" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H148" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I148" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="J148" s="17" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="17"/>
-      <c r="B149" s="1">
-        <f>B148+1</f>
-        <v>20</v>
-      </c>
-      <c r="C149" s="25" t="s">
-        <v>31</v>
-      </c>
       <c r="D149" s="3" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E149" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F149" s="26" t="s">
-        <v>32</v>
+        <v>21</v>
+      </c>
+      <c r="F149" s="20" t="s">
+        <v>21</v>
       </c>
       <c r="G149" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H149" s="26" t="s">
-        <v>43</v>
+        <v>21</v>
+      </c>
+      <c r="H149" s="19" t="s">
+        <v>29</v>
       </c>
       <c r="I149" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="J149" s="51" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="17"/>
+        <v>273</v>
+      </c>
+      <c r="J149" s="50" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" s="51" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A150" s="52"/>
       <c r="B150" s="1">
         <f t="shared" si="7"/>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C150" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="D150" s="3" t="s">
-        <v>24</v>
+        <v>156</v>
+      </c>
+      <c r="D150" s="41" t="s">
+        <v>21</v>
       </c>
       <c r="E150" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F150" s="20" t="s">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="F150" s="26" t="s">
+        <v>33</v>
       </c>
       <c r="G150" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H150" s="19" t="s">
-        <v>28</v>
+        <v>21</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="I150" s="16" t="s">
-        <v>271</v>
-      </c>
-      <c r="J150" s="51" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>275</v>
+      </c>
+      <c r="J150" s="50" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" ht="15" customHeight="1">
+      <c r="A151" s="17"/>
       <c r="B151" s="1">
         <f t="shared" si="7"/>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C151" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D151" s="3" t="s">
-        <v>19</v>
+        <v>156</v>
+      </c>
+      <c r="D151" s="41" t="s">
+        <v>21</v>
       </c>
       <c r="E151" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F151" s="20" t="s">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="F151" s="26" t="s">
+        <v>33</v>
       </c>
       <c r="G151" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H151" s="19" t="s">
-        <v>28</v>
+        <v>21</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="I151" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="J151" s="51" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="53"/>
+        <v>277</v>
+      </c>
+      <c r="J151" s="50" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" ht="15" customHeight="1">
+      <c r="A152" s="17"/>
       <c r="B152" s="1">
         <f t="shared" si="7"/>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C152" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="D152" s="3" t="s">
-        <v>24</v>
+        <v>156</v>
+      </c>
+      <c r="D152" s="41" t="s">
+        <v>21</v>
       </c>
       <c r="E152" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F152" s="20" t="s">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="F152" s="26" t="s">
+        <v>33</v>
       </c>
       <c r="G152" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H152" s="19" t="s">
-        <v>28</v>
+        <v>21</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="I152" s="16" t="s">
-        <v>275</v>
-      </c>
-      <c r="J152" s="51" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="53"/>
+        <v>279</v>
+      </c>
+      <c r="J152" s="17" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" s="51" customFormat="1" ht="15" customHeight="1">
+      <c r="A153" s="17"/>
       <c r="B153" s="1">
         <f t="shared" si="7"/>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C153" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="D153" s="42" t="s">
-        <v>20</v>
+        <v>32</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="E153" s="20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F153" s="26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G153" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H153" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="H153" s="26" t="s">
+        <v>44</v>
       </c>
       <c r="I153" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="J153" s="51" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="17"/>
+        <v>281</v>
+      </c>
+      <c r="J153" s="25" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" ht="15" customHeight="1">
       <c r="B154" s="1">
         <f t="shared" si="7"/>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C154" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="D154" s="42" t="s">
-        <v>20</v>
+        <v>32</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="E154" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F154" s="26" t="s">
-        <v>32</v>
+        <v>21</v>
+      </c>
+      <c r="F154" s="20" t="s">
+        <v>21</v>
       </c>
       <c r="G154" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H154" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="H154" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="I154" s="16" t="s">
-        <v>279</v>
-      </c>
-      <c r="J154" s="51" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="17"/>
+        <v>283</v>
+      </c>
+      <c r="J154" s="17" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" ht="15" customHeight="1">
       <c r="B155" s="1">
         <f t="shared" si="7"/>
+        <v>29</v>
+      </c>
+      <c r="C155" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="D155" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="E155" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F155" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G155" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H155" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C155" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="D155" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="E155" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F155" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="G155" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H155" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="I155" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="J155" s="17" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="17"/>
+        <v>285</v>
+      </c>
+      <c r="J155" s="40" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" ht="15" customHeight="1">
       <c r="B156" s="1">
         <f t="shared" si="7"/>
-        <v>27</v>
-      </c>
-      <c r="C156" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D156" s="3" t="s">
-        <v>12</v>
+        <v>30</v>
+      </c>
+      <c r="C156" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="D156" s="54" t="s">
+        <v>20</v>
       </c>
       <c r="E156" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F156" s="26" t="s">
-        <v>32</v>
+        <v>21</v>
+      </c>
+      <c r="F156" s="20" t="s">
+        <v>21</v>
       </c>
       <c r="G156" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H156" s="26" t="s">
-        <v>43</v>
+        <v>21</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="I156" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="J156" s="25" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+      <c r="J156" s="40" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" ht="15" customHeight="1">
       <c r="B157" s="1">
         <f t="shared" si="7"/>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C157" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D157" s="3" t="s">
-        <v>127</v>
+        <v>32</v>
+      </c>
+      <c r="D157" s="25" t="s">
+        <v>13</v>
       </c>
       <c r="E157" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F157" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="F157" s="26" t="s">
+        <v>33</v>
       </c>
       <c r="G157" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H157" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="H157" s="26" t="s">
+        <v>44</v>
       </c>
       <c r="I157" s="16" t="s">
-        <v>285</v>
-      </c>
-      <c r="J157" s="17" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>289</v>
+      </c>
+      <c r="J157" s="25" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" ht="15" customHeight="1">
       <c r="B158" s="1">
         <f t="shared" si="7"/>
-        <v>29</v>
-      </c>
-      <c r="C158" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="D158" s="55" t="s">
-        <v>19</v>
+        <v>32</v>
+      </c>
+      <c r="C158" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D158" s="25" t="s">
+        <v>13</v>
       </c>
       <c r="E158" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F158" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="F158" s="26" t="s">
+        <v>33</v>
       </c>
       <c r="G158" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H158" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="H158" s="26" t="s">
+        <v>44</v>
       </c>
       <c r="I158" s="16" t="s">
-        <v>287</v>
-      </c>
-      <c r="J158" s="41" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="J158" s="25" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" ht="15" customHeight="1">
       <c r="B159" s="1">
         <f t="shared" si="7"/>
-        <v>30</v>
-      </c>
-      <c r="C159" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="D159" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="C159" s="53" t="s">
         <v>19</v>
       </c>
+      <c r="D159" s="54" t="s">
+        <v>20</v>
+      </c>
       <c r="E159" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F159" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G159" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I159" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="J159" s="41" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="J159" s="40" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" ht="15" customHeight="1">
       <c r="B160" s="1">
         <f t="shared" si="7"/>
-        <v>31</v>
-      </c>
-      <c r="C160" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D160" s="25" t="s">
-        <v>12</v>
+        <v>34</v>
+      </c>
+      <c r="C160" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="D160" s="54" t="s">
+        <v>20</v>
       </c>
       <c r="E160" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F160" s="26" t="s">
-        <v>32</v>
+        <v>21</v>
+      </c>
+      <c r="F160" s="20" t="s">
+        <v>21</v>
       </c>
       <c r="G160" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H160" s="26" t="s">
-        <v>43</v>
+        <v>21</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="I160" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="J160" s="25" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>295</v>
+      </c>
+      <c r="J160" s="40" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" ht="15" customHeight="1">
       <c r="B161" s="1">
         <f t="shared" si="7"/>
-        <v>32</v>
-      </c>
-      <c r="C161" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D161" s="25" t="s">
-        <v>12</v>
+        <v>35</v>
+      </c>
+      <c r="C161" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="E161" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F161" s="26" t="s">
-        <v>32</v>
+        <v>21</v>
+      </c>
+      <c r="F161" s="20" t="s">
+        <v>21</v>
       </c>
       <c r="G161" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H161" s="26" t="s">
-        <v>43</v>
+        <v>21</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="I161" s="16" t="s">
-        <v>293</v>
-      </c>
-      <c r="J161" s="25" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+      <c r="J161" s="17" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" ht="15" customHeight="1">
       <c r="B162" s="1">
         <f t="shared" si="7"/>
-        <v>33</v>
-      </c>
-      <c r="C162" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="D162" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="C162" s="55" t="s">
         <v>19</v>
       </c>
+      <c r="D162" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="E162" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F162" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G162" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I162" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="J162" s="17" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" ht="15" customHeight="1">
+      <c r="C163" s="55"/>
+      <c r="D163" s="25"/>
+      <c r="E163" s="56"/>
+      <c r="F163" s="26"/>
+      <c r="G163" s="26"/>
+      <c r="I163" s="47"/>
+      <c r="J163" s="17"/>
+    </row>
+    <row r="164" spans="1:10" ht="15" customHeight="1">
+      <c r="B164" s="25"/>
+      <c r="C164" s="25"/>
+      <c r="D164" s="25"/>
+      <c r="E164" s="56"/>
+      <c r="F164" s="26"/>
+      <c r="G164" s="26"/>
+      <c r="I164" s="1"/>
+      <c r="J164" s="17"/>
+    </row>
+    <row r="165" spans="1:10" ht="41.45" customHeight="1">
+      <c r="A165" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="B165" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C165" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D165" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E165" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F165" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="G165" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H165" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="I165" s="30"/>
+      <c r="J165" s="30" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" ht="15" customHeight="1">
+      <c r="A166" s="13"/>
+      <c r="B166" s="15">
+        <v>1</v>
+      </c>
+      <c r="C166" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D166" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E166" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F166" s="14"/>
+      <c r="G166" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H166" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I166" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="J166" s="13" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
+      <c r="B167" s="1">
+        <f>B166+1</f>
+        <v>2</v>
+      </c>
+      <c r="C167" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D167" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F162" s="20" t="s">
+      <c r="E167" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G167" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H167" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I167" s="47" t="s">
+        <v>304</v>
+      </c>
+      <c r="J167" s="17" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" ht="15" customHeight="1">
+      <c r="C168" s="55"/>
+      <c r="D168" s="25"/>
+      <c r="E168" s="56"/>
+      <c r="F168" s="26"/>
+      <c r="G168" s="26"/>
+      <c r="I168" s="35"/>
+      <c r="J168" s="17"/>
+    </row>
+    <row r="169" spans="1:10" ht="15" customHeight="1">
+      <c r="B169" s="25"/>
+      <c r="C169" s="25"/>
+      <c r="D169" s="25"/>
+      <c r="E169" s="56"/>
+      <c r="F169" s="26"/>
+      <c r="G169" s="26"/>
+      <c r="I169" s="1"/>
+      <c r="J169" s="17"/>
+    </row>
+    <row r="170" spans="1:10" ht="41.45" customHeight="1">
+      <c r="A170" s="27" t="s">
+        <v>306</v>
+      </c>
+      <c r="B170" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C170" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D170" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E170" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F170" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="G170" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H170" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="I170" s="30"/>
+      <c r="J170" s="30" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" ht="15" customHeight="1">
+      <c r="A171" s="13"/>
+      <c r="B171" s="15">
+        <v>1</v>
+      </c>
+      <c r="C171" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D171" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E171" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F171" s="14"/>
+      <c r="G171" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H171" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I171" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="J171" s="13" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
+      <c r="B172" s="1">
+        <f>B171+1</f>
+        <v>2</v>
+      </c>
+      <c r="C172" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D172" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G162" s="20" t="s">
+      <c r="E172" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G172" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H172" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I172" s="47" t="s">
+        <v>309</v>
+      </c>
+      <c r="J172" s="17" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" ht="15" customHeight="1">
+      <c r="C173" s="18"/>
+      <c r="E173" s="35"/>
+      <c r="G173" s="35"/>
+      <c r="H173" s="19"/>
+      <c r="I173" s="35"/>
+      <c r="J173" s="19"/>
+    </row>
+    <row r="174" spans="1:10" ht="15" customHeight="1">
+      <c r="A174" s="25"/>
+      <c r="B174" s="25"/>
+      <c r="C174" s="25"/>
+      <c r="D174" s="25"/>
+      <c r="E174" s="56"/>
+      <c r="F174" s="26"/>
+      <c r="G174" s="26"/>
+      <c r="I174" s="47"/>
+      <c r="J174" s="17"/>
+    </row>
+    <row r="175" spans="1:10" ht="41.45" customHeight="1">
+      <c r="A175" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="B175" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C175" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D175" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E175" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F175" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="G175" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H175" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="I175" s="30"/>
+      <c r="J175" s="30" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" ht="15" customHeight="1">
+      <c r="A176" s="13"/>
+      <c r="B176" s="15">
+        <v>1</v>
+      </c>
+      <c r="C176" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D176" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E176" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F176" s="15"/>
+      <c r="G176" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H176" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="I176" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="J176" s="13" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A177" s="21"/>
+      <c r="B177" s="1">
+        <f>B176+1</f>
+        <v>2</v>
+      </c>
+      <c r="C177" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D177" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H162" s="1" t="s">
+      <c r="E177" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F177" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G177" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H177" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="I177" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="J177" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A178" s="21"/>
+      <c r="B178" s="1">
+        <f t="shared" ref="B178:B181" si="8">B177+1</f>
+        <v>3</v>
+      </c>
+      <c r="C178" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="D178" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="E178" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F178" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="G178" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H178" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="I178" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="J178" s="17" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A179" s="21"/>
+      <c r="B179" s="1">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="C179" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D179" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I162" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="J162" s="41" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B163" s="1">
-        <f t="shared" si="7"/>
-        <v>34</v>
-      </c>
-      <c r="C163" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="D163" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="E163" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F163" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G163" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H163" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I163" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="J163" s="41" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B164" s="1">
-        <f t="shared" si="7"/>
-        <v>35</v>
-      </c>
-      <c r="C164" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="D164" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E164" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F164" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G164" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H164" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I164" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="J164" s="17" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B165" s="1">
-        <f t="shared" si="7"/>
-        <v>36</v>
-      </c>
-      <c r="C165" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="D165" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E165" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F165" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G165" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H165" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I165" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="J165" s="17" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C166" s="56"/>
-      <c r="D166" s="25"/>
-      <c r="E166" s="57"/>
-      <c r="F166" s="26"/>
-      <c r="G166" s="26"/>
-      <c r="I166" s="48"/>
-      <c r="J166" s="17"/>
-    </row>
-    <row r="167" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B167" s="25"/>
-      <c r="C167" s="25"/>
-      <c r="D167" s="25"/>
-      <c r="E167" s="57"/>
-      <c r="F167" s="26"/>
-      <c r="G167" s="26"/>
-      <c r="I167" s="1"/>
-      <c r="J167" s="17"/>
-    </row>
-    <row r="168" spans="1:10" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="27" t="s">
-        <v>303</v>
-      </c>
-      <c r="B168" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="C168" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D168" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="E168" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="F168" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="G168" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="H168" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="I168" s="30"/>
-      <c r="J168" s="30" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="13"/>
-      <c r="B169" s="15">
-        <v>1</v>
-      </c>
-      <c r="C169" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D169" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E169" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F169" s="14"/>
-      <c r="G169" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H169" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="I169" s="31" t="s">
-        <v>260</v>
-      </c>
-      <c r="J169" s="13" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B170" s="1">
-        <f>B169+1</f>
-        <v>2</v>
-      </c>
-      <c r="C170" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D170" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E170" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F170" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G170" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="H170" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="I170" s="48" t="s">
-        <v>306</v>
-      </c>
-      <c r="J170" s="17" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C171" s="56"/>
-      <c r="D171" s="25"/>
-      <c r="E171" s="57"/>
-      <c r="F171" s="26"/>
-      <c r="G171" s="26"/>
-      <c r="I171" s="35"/>
-      <c r="J171" s="17"/>
-    </row>
-    <row r="172" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B172" s="25"/>
-      <c r="C172" s="25"/>
-      <c r="D172" s="25"/>
-      <c r="E172" s="57"/>
-      <c r="F172" s="26"/>
-      <c r="G172" s="26"/>
-      <c r="I172" s="1"/>
-      <c r="J172" s="17"/>
-    </row>
-    <row r="173" spans="1:10" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="27" t="s">
-        <v>308</v>
-      </c>
-      <c r="B173" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="C173" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D173" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="E173" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="F173" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="G173" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="H173" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="I173" s="30"/>
-      <c r="J173" s="30" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="13"/>
-      <c r="B174" s="15">
-        <v>1</v>
-      </c>
-      <c r="C174" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D174" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E174" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F174" s="14"/>
-      <c r="G174" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H174" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="I174" s="31" t="s">
-        <v>262</v>
-      </c>
-      <c r="J174" s="13" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B175" s="1">
-        <f>B174+1</f>
-        <v>2</v>
-      </c>
-      <c r="C175" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D175" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E175" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F175" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G175" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="H175" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="I175" s="48" t="s">
-        <v>311</v>
-      </c>
-      <c r="J175" s="17" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C176" s="18"/>
-      <c r="E176" s="35"/>
-      <c r="G176" s="35"/>
-      <c r="H176" s="19"/>
-      <c r="I176" s="35"/>
-      <c r="J176" s="19"/>
-    </row>
-    <row r="177" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="25"/>
-      <c r="B177" s="25"/>
-      <c r="C177" s="25"/>
-      <c r="D177" s="25"/>
-      <c r="E177" s="57"/>
-      <c r="F177" s="26"/>
-      <c r="G177" s="26"/>
-      <c r="I177" s="48"/>
-      <c r="J177" s="17"/>
-    </row>
-    <row r="178" spans="1:10" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="27" t="s">
-        <v>313</v>
-      </c>
-      <c r="B178" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="C178" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D178" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="E178" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="F178" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="G178" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="H178" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="I178" s="30"/>
-      <c r="J178" s="30" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="13"/>
-      <c r="B179" s="15">
-        <v>1</v>
-      </c>
-      <c r="C179" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D179" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E179" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F179" s="15"/>
-      <c r="G179" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H179" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="I179" s="39" t="s">
-        <v>269</v>
+      <c r="E179" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F179" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G179" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H179" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="I179" s="16" t="s">
+        <v>318</v>
       </c>
       <c r="J179" s="13" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" ht="15.95" customHeight="1">
       <c r="A180" s="21"/>
       <c r="B180" s="1">
-        <f>B179+1</f>
-        <v>2</v>
-      </c>
-      <c r="C180" s="17" t="s">
-        <v>18</v>
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="C180" s="25" t="s">
+        <v>56</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="E180" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F180" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="G180" s="19" t="s">
-        <v>14</v>
+        <v>14</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G180" s="20" t="s">
+        <v>21</v>
       </c>
       <c r="H180" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="I180" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="J180" s="3" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="I180" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="J180" s="57" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" ht="15.95" customHeight="1">
       <c r="A181" s="21"/>
       <c r="B181" s="1">
-        <f t="shared" ref="B181:B184" si="8">B180+1</f>
-        <v>3</v>
-      </c>
-      <c r="C181" s="56" t="s">
-        <v>155</v>
-      </c>
-      <c r="D181" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="E181" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F181" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="G181" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H181" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="I181" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="J181" s="17" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="21"/>
-      <c r="B182" s="1">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="C182" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D182" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E182" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F182" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="G182" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H182" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="I182" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="J182" s="13" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="183" spans="1:10" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="21"/>
-      <c r="B183" s="1">
-        <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="C183" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="D183" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E183" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F183" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G183" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H183" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I183" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="J183" s="58" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="184" spans="1:10" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="21"/>
-      <c r="B184" s="1">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="C184" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D184" s="25" t="s">
+      <c r="C181" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D181" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E181" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F181" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G181" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H181" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="I181" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="J181" s="57" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
+      <c r="A182" s="21"/>
+      <c r="B182" s="58"/>
+      <c r="C182" s="17"/>
+      <c r="D182" s="25"/>
+      <c r="E182" s="7"/>
+      <c r="F182" s="26"/>
+      <c r="G182" s="26"/>
+      <c r="H182" s="26"/>
+      <c r="I182" s="35"/>
+      <c r="J182" s="16"/>
+    </row>
+    <row r="183" spans="1:10" ht="15" customHeight="1">
+      <c r="A183" s="25"/>
+      <c r="B183" s="25"/>
+      <c r="C183" s="25"/>
+      <c r="D183" s="25"/>
+      <c r="E183" s="56"/>
+      <c r="F183" s="26"/>
+      <c r="G183" s="26"/>
+      <c r="I183" s="1"/>
+      <c r="J183" s="17"/>
+    </row>
+    <row r="184" spans="1:10" ht="41.45" customHeight="1">
+      <c r="A184" s="27" t="s">
+        <v>320</v>
+      </c>
+      <c r="B184" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C184" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D184" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E184" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F184" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="G184" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H184" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="I184" s="30"/>
+      <c r="J184" s="30" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" ht="15" customHeight="1">
+      <c r="A185" s="13"/>
+      <c r="B185" s="15">
+        <v>1</v>
+      </c>
+      <c r="C185" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E184" s="20" t="s">
+      <c r="D185" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F184" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="G184" s="20" t="s">
+      <c r="E185" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F185" s="14"/>
+      <c r="G185" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H185" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I185" s="31" t="s">
+        <v>281</v>
+      </c>
+      <c r="J185" s="13" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
+      <c r="B186" s="1">
+        <f>B185+1</f>
+        <v>2</v>
+      </c>
+      <c r="C186" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D186" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H184" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="I184" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="J184" s="58" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A185" s="21"/>
-      <c r="B185" s="59"/>
-      <c r="C185" s="17"/>
-      <c r="D185" s="25"/>
-      <c r="E185" s="7"/>
-      <c r="F185" s="26"/>
-      <c r="G185" s="26"/>
-      <c r="H185" s="26"/>
-      <c r="I185" s="35"/>
-      <c r="J185" s="16"/>
-    </row>
-    <row r="186" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="25"/>
-      <c r="B186" s="25"/>
-      <c r="C186" s="25"/>
-      <c r="D186" s="25"/>
-      <c r="E186" s="57"/>
-      <c r="F186" s="26"/>
-      <c r="G186" s="26"/>
-      <c r="I186" s="1"/>
-      <c r="J186" s="17"/>
-    </row>
-    <row r="187" spans="1:10" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="27" t="s">
-        <v>322</v>
-      </c>
-      <c r="B187" s="28" t="s">
+      <c r="E186" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G186" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H186" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I186" s="47" t="s">
+        <v>323</v>
+      </c>
+      <c r="J186" s="48" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
+      <c r="B187" s="1">
+        <f t="shared" ref="B187:B189" si="9">B186+1</f>
         <v>3</v>
       </c>
-      <c r="C187" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D187" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="E187" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="F187" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="G187" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="H187" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="I187" s="30"/>
-      <c r="J187" s="30" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="188" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="13"/>
-      <c r="B188" s="15">
-        <v>1</v>
-      </c>
-      <c r="C188" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D188" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E188" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F188" s="14"/>
-      <c r="G188" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H188" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="I188" s="31" t="s">
-        <v>283</v>
-      </c>
-      <c r="J188" s="13" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B189" s="1">
-        <f>B188+1</f>
-        <v>2</v>
-      </c>
-      <c r="C189" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D189" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E189" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F189" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G189" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="H189" s="19" t="s">
+      <c r="C187" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D187" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I189" s="48" t="s">
+      <c r="E187" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G187" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H187" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="I187" s="47" t="s">
         <v>325</v>
       </c>
-      <c r="J189" s="49" t="s">
+      <c r="J187" s="13" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="190" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B190" s="1">
-        <f t="shared" ref="B190:B192" si="9">B189+1</f>
-        <v>3</v>
-      </c>
-      <c r="C190" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D190" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E190" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F190" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G190" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H190" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="I190" s="48" t="s">
-        <v>327</v>
-      </c>
-      <c r="J190" s="13" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B191" s="1">
+    <row r="188" spans="1:10" ht="15" customHeight="1">
+      <c r="B188" s="1">
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="C191" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="D191" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E191" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F191" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G191" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H191" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I191" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="J191" s="17" t="s">
+      <c r="C188" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D188" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="192" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B192" s="1">
+      <c r="E188" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G188" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H188" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I188" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="J188" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" ht="15" customHeight="1">
+      <c r="B189" s="1">
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="C192" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D192" s="25" t="s">
+      <c r="C189" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D189" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E189" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F189" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G189" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H189" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="I189" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="J189" s="17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" ht="15" customHeight="1">
+      <c r="C190" s="18"/>
+      <c r="E190" s="35"/>
+      <c r="G190" s="35"/>
+      <c r="H190" s="19"/>
+      <c r="I190" s="19"/>
+      <c r="J190" s="19"/>
+    </row>
+    <row r="191" spans="1:10" ht="15" customHeight="1">
+      <c r="B191" s="3"/>
+      <c r="C191" s="3"/>
+      <c r="E191" s="35"/>
+      <c r="G191" s="35"/>
+      <c r="H191" s="19"/>
+      <c r="I191" s="19"/>
+      <c r="J191"/>
+    </row>
+    <row r="192" spans="1:10" ht="41.45" customHeight="1">
+      <c r="A192" s="27" t="s">
+        <v>327</v>
+      </c>
+      <c r="B192" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C192" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D192" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E192" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F192" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="G192" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H192" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="I192" s="30"/>
+      <c r="J192" s="30" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" ht="15" customHeight="1">
+      <c r="A193" s="13"/>
+      <c r="B193" s="15">
+        <v>1</v>
+      </c>
+      <c r="C193" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E192" s="20" t="s">
+      <c r="D193" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F192" s="26" t="s">
+      <c r="E193" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F193" s="14"/>
+      <c r="G193" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H193" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I193" s="31" t="s">
+        <v>328</v>
+      </c>
+      <c r="J193" s="13" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
+      <c r="B194" s="1">
+        <f>B193+1</f>
+        <v>2</v>
+      </c>
+      <c r="C194" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E194" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G194" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H194" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I194" s="47" t="s">
+        <v>330</v>
+      </c>
+      <c r="J194" s="17" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
+      <c r="B195" s="1">
+        <f t="shared" ref="B195" si="10">B194+1</f>
+        <v>3</v>
+      </c>
+      <c r="C195" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E195" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G195" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H195" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="I195" s="47" t="s">
+        <v>332</v>
+      </c>
+      <c r="J195" s="17" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" ht="15" customHeight="1">
+      <c r="C196" s="18"/>
+      <c r="E196" s="35"/>
+      <c r="G196" s="35"/>
+      <c r="H196" s="19"/>
+      <c r="I196" s="19"/>
+    </row>
+    <row r="197" spans="1:10">
+      <c r="C197" s="17"/>
+      <c r="D197" s="25"/>
+      <c r="E197" s="7"/>
+      <c r="F197" s="26"/>
+      <c r="G197" s="26"/>
+      <c r="H197" s="26"/>
+      <c r="I197" s="16"/>
+      <c r="J197" s="17"/>
+    </row>
+    <row r="198" spans="1:10" ht="41.45" customHeight="1">
+      <c r="A198" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="B198" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C198" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D198" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E198" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F198" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G198" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H198" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I198" s="10"/>
+      <c r="J198" s="10" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" ht="15" customHeight="1">
+      <c r="A199" s="13"/>
+      <c r="B199" s="15">
+        <v>1</v>
+      </c>
+      <c r="C199" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D199" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E199" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F199" s="15"/>
+      <c r="G199" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H199" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="I199" s="39" t="s">
+        <v>336</v>
+      </c>
+      <c r="J199" s="3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" ht="15" customHeight="1">
+      <c r="A200" s="17"/>
+      <c r="B200" s="1">
+        <f>B199+1</f>
+        <v>2</v>
+      </c>
+      <c r="C200" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="G192" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H192" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="I192" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="J192" s="17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="193" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C193" s="18"/>
-      <c r="E193" s="35"/>
-      <c r="G193" s="35"/>
-      <c r="H193" s="19"/>
-      <c r="I193" s="19"/>
-      <c r="J193" s="19"/>
-    </row>
-    <row r="194" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B194" s="3"/>
-      <c r="C194" s="3"/>
-      <c r="E194" s="35"/>
-      <c r="G194" s="35"/>
-      <c r="H194" s="19"/>
-      <c r="I194" s="19"/>
-      <c r="J194"/>
-    </row>
-    <row r="195" spans="1:10" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="27" t="s">
-        <v>329</v>
-      </c>
-      <c r="B195" s="28" t="s">
+      <c r="D200" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E200" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F200" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G200" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H200" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="I200" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J200" s="59" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" ht="15" customHeight="1">
+      <c r="A201" s="17"/>
+      <c r="B201" s="1">
+        <f t="shared" ref="B201:B211" si="11">B200+1</f>
         <v>3</v>
       </c>
-      <c r="C195" s="29" t="s">
+      <c r="C201" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D201" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E201" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F201" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G201" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H201" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="I201" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="J201" s="59" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" ht="15" customHeight="1">
+      <c r="A202" s="17"/>
+      <c r="B202" s="1">
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
-      <c r="D195" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="E195" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="F195" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="G195" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="H195" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="I195" s="30"/>
-      <c r="J195" s="30" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="196" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="13"/>
-      <c r="B196" s="15">
-        <v>1</v>
-      </c>
-      <c r="C196" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D196" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E196" s="14" t="s">
+      <c r="C202" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D202" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="F196" s="14"/>
-      <c r="G196" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H196" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="I196" s="31" t="s">
-        <v>330</v>
-      </c>
-      <c r="J196" s="13" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B197" s="1">
-        <f>B196+1</f>
-        <v>2</v>
-      </c>
-      <c r="C197" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D197" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E197" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F197" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G197" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="H197" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="I197" s="48" t="s">
-        <v>332</v>
-      </c>
-      <c r="J197" s="17" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="198" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B198" s="1">
-        <f t="shared" ref="B198" si="10">B197+1</f>
-        <v>3</v>
-      </c>
-      <c r="C198" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D198" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E198" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F198" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G198" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H198" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="I198" s="48" t="s">
-        <v>334</v>
-      </c>
-      <c r="J198" s="17" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C199" s="18"/>
-      <c r="E199" s="35"/>
-      <c r="G199" s="35"/>
-      <c r="H199" s="19"/>
-      <c r="I199" s="19"/>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C200" s="17"/>
-      <c r="D200" s="25"/>
-      <c r="E200" s="7"/>
-      <c r="F200" s="26"/>
-      <c r="G200" s="26"/>
-      <c r="H200" s="26"/>
-      <c r="I200" s="16"/>
-      <c r="J200" s="17"/>
-    </row>
-    <row r="201" spans="1:10" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="B201" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C201" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D201" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E201" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F201" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G201" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H201" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I201" s="10"/>
-      <c r="J201" s="10" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="202" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="13"/>
-      <c r="B202" s="15">
-        <v>1</v>
-      </c>
-      <c r="C202" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D202" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E202" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F202" s="15"/>
-      <c r="G202" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H202" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="I202" s="39" t="s">
-        <v>338</v>
-      </c>
-      <c r="J202" s="3" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="203" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E202" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F202" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G202" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H202" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="I202" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="J202" s="59" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" ht="15" customHeight="1">
       <c r="A203" s="17"/>
       <c r="B203" s="1">
-        <f>B202+1</f>
-        <v>2</v>
+        <f t="shared" si="11"/>
+        <v>5</v>
       </c>
       <c r="C203" s="25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D203" s="25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E203" s="20" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F203" s="26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G203" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H203" s="26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I203" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J203" s="60" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>341</v>
+      </c>
+      <c r="J203" s="3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" ht="15" customHeight="1">
       <c r="A204" s="17"/>
       <c r="B204" s="1">
-        <f t="shared" ref="B204:B214" si="11">B203+1</f>
-        <v>3</v>
+        <f t="shared" si="11"/>
+        <v>6</v>
       </c>
       <c r="C204" s="25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D204" s="25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E204" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F204" s="26" t="s">
-        <v>32</v>
+        <v>21</v>
+      </c>
+      <c r="F204" s="20" t="s">
+        <v>21</v>
       </c>
       <c r="G204" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H204" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="I204" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="J204" s="60" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="205" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="17"/>
+        <v>21</v>
+      </c>
+      <c r="H204" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="I204" s="23" t="s">
+        <v>343</v>
+      </c>
+      <c r="J204" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" ht="15" customHeight="1">
       <c r="B205" s="1">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C205" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D205" s="25" t="s">
-        <v>12</v>
+        <v>19</v>
+      </c>
+      <c r="D205" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="E205" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F205" s="26" t="s">
-        <v>32</v>
+        <v>14</v>
+      </c>
+      <c r="F205" s="20" t="s">
+        <v>21</v>
       </c>
       <c r="G205" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H205" s="26" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I205" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="J205" s="60" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="206" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>345</v>
+      </c>
+      <c r="J205" s="17" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" ht="15" customHeight="1">
       <c r="A206" s="17"/>
       <c r="B206" s="1">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C206" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D206" s="25" t="s">
-        <v>12</v>
+        <v>19</v>
+      </c>
+      <c r="D206" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="E206" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F206" s="26" t="s">
-        <v>32</v>
+        <v>21</v>
+      </c>
+      <c r="F206" s="20" t="s">
+        <v>21</v>
       </c>
       <c r="G206" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H206" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="I206" s="16" t="s">
-        <v>343</v>
-      </c>
-      <c r="J206" s="3" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="207" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="H206" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I206" s="23" t="s">
+        <v>347</v>
+      </c>
+      <c r="J206" s="59" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" ht="15" customHeight="1">
       <c r="A207" s="17"/>
       <c r="B207" s="1">
         <f t="shared" si="11"/>
-        <v>6</v>
-      </c>
-      <c r="C207" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D207" s="25" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="C207" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="E207" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F207" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G207" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H207" s="19" t="s">
-        <v>28</v>
+        <v>21</v>
+      </c>
+      <c r="H207" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="I207" s="23" t="s">
-        <v>345</v>
-      </c>
-      <c r="J207" s="3" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="208" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>349</v>
+      </c>
+      <c r="J207" s="59" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" ht="15" customHeight="1">
       <c r="B208" s="1">
         <f t="shared" si="11"/>
-        <v>7</v>
-      </c>
-      <c r="C208" s="25" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="C208" s="54" t="s">
+        <v>24</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E208" s="20" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F208" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G208" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H208" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="I208" s="16" t="s">
-        <v>347</v>
-      </c>
-      <c r="J208" s="17" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="209" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="I208" s="23" t="s">
+        <v>351</v>
+      </c>
+      <c r="J208" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" ht="15" customHeight="1">
       <c r="A209" s="17"/>
       <c r="B209" s="1">
         <f t="shared" si="11"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C209" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D209" s="3" t="s">
-        <v>19</v>
+        <v>32</v>
+      </c>
+      <c r="D209" s="25" t="s">
+        <v>13</v>
       </c>
       <c r="E209" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F209" s="20" t="s">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="F209" s="26" t="s">
+        <v>33</v>
       </c>
       <c r="G209" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H209" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="H209" s="26" t="s">
+        <v>44</v>
       </c>
       <c r="I209" s="23" t="s">
-        <v>349</v>
-      </c>
-      <c r="J209" s="60" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>353</v>
+      </c>
+      <c r="J209" s="3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" ht="15" customHeight="1">
       <c r="A210" s="17"/>
       <c r="B210" s="1">
         <f t="shared" si="11"/>
-        <v>9</v>
-      </c>
-      <c r="C210" s="55" t="s">
-        <v>23</v>
+        <v>12</v>
+      </c>
+      <c r="C210" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>24</v>
+        <v>355</v>
       </c>
       <c r="E210" s="20" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F210" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G210" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H210" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="H210" s="26" t="s">
+        <v>16</v>
       </c>
       <c r="I210" s="23" t="s">
-        <v>351</v>
-      </c>
-      <c r="J210" s="60" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>356</v>
+      </c>
+      <c r="J210" s="3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" ht="15" customHeight="1">
+      <c r="A211" s="17"/>
       <c r="B211" s="1">
         <f t="shared" si="11"/>
-        <v>10</v>
-      </c>
-      <c r="C211" s="55" t="s">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="C211" s="25" t="s">
+        <v>24</v>
       </c>
       <c r="D211" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E211" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F211" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G211" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H211" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="I211" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="J211" s="17" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" ht="15" customHeight="1">
+      <c r="A212" s="17"/>
+      <c r="B212" s="7"/>
+      <c r="C212" s="25"/>
+      <c r="D212" s="25"/>
+      <c r="E212" s="26"/>
+      <c r="F212" s="26"/>
+      <c r="G212" s="26"/>
+      <c r="H212" s="26"/>
+      <c r="I212" s="60"/>
+      <c r="J212" s="3"/>
+    </row>
+    <row r="213" spans="1:10" ht="15" customHeight="1">
+      <c r="C213" s="54"/>
+      <c r="D213" s="54"/>
+      <c r="E213" s="26"/>
+      <c r="F213" s="26"/>
+      <c r="G213" s="26"/>
+      <c r="H213" s="26"/>
+      <c r="I213" s="3"/>
+      <c r="J213" s="3"/>
+    </row>
+    <row r="214" spans="1:10" s="62" customFormat="1" ht="41.45" customHeight="1">
+      <c r="A214" s="61" t="s">
+        <v>360</v>
+      </c>
+      <c r="B214" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C214" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D214" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E214" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F214" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="G214" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H214" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="I214" s="29"/>
+      <c r="J214" s="29" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" ht="15" customHeight="1">
+      <c r="A215" s="13"/>
+      <c r="B215" s="15">
+        <v>1</v>
+      </c>
+      <c r="C215" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D215" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E215" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F215" s="15"/>
+      <c r="G215" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H215" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="I215" s="39" t="s">
+        <v>353</v>
+      </c>
+      <c r="J215" s="13" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1">
+      <c r="A216" s="63"/>
+      <c r="B216" s="1">
+        <f>B215+1</f>
+        <v>2</v>
+      </c>
+      <c r="C216" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="D216" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E216" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G216" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H216" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="I216" s="65" t="s">
+        <v>363</v>
+      </c>
+      <c r="J216" s="42" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1">
+      <c r="A217" s="63"/>
+      <c r="B217" s="1">
+        <f t="shared" ref="B217:B220" si="12">B216+1</f>
+        <v>3</v>
+      </c>
+      <c r="C217" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="E211" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F211" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G211" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H211" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="I211" s="23" t="s">
-        <v>353</v>
-      </c>
-      <c r="J211" s="3" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="17"/>
-      <c r="B212" s="1">
-        <f t="shared" si="11"/>
-        <v>11</v>
-      </c>
-      <c r="C212" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D212" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E212" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F212" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="G212" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H212" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="I212" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="J212" s="3" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="17"/>
-      <c r="B213" s="1">
-        <f t="shared" si="11"/>
-        <v>12</v>
-      </c>
-      <c r="C213" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D213" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="E213" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F213" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G213" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H213" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="I213" s="23" t="s">
-        <v>358</v>
-      </c>
-      <c r="J213" s="3" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="214" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="17"/>
-      <c r="B214" s="1">
-        <f t="shared" si="11"/>
-        <v>13</v>
-      </c>
-      <c r="C214" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="D214" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E214" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F214" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G214" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H214" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="I214" s="23" t="s">
-        <v>360</v>
-      </c>
-      <c r="J214" s="17" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="17"/>
-      <c r="B215" s="7"/>
-      <c r="C215" s="25"/>
-      <c r="D215" s="25"/>
-      <c r="E215" s="26"/>
-      <c r="F215" s="26"/>
-      <c r="G215" s="26"/>
-      <c r="H215" s="26"/>
-      <c r="I215" s="61"/>
-      <c r="J215" s="3"/>
-    </row>
-    <row r="216" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C216" s="55"/>
-      <c r="D216" s="55"/>
-      <c r="E216" s="26"/>
-      <c r="F216" s="26"/>
-      <c r="G216" s="26"/>
-      <c r="H216" s="26"/>
-      <c r="I216" s="3"/>
-      <c r="J216" s="3"/>
-    </row>
-    <row r="217" spans="1:10" s="63" customFormat="1" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="62" t="s">
-        <v>362</v>
-      </c>
-      <c r="B217" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="C217" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D217" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="E217" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="F217" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="G217" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="H217" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="I217" s="29"/>
-      <c r="J217" s="29" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="218" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="13"/>
-      <c r="B218" s="15">
-        <v>1</v>
-      </c>
-      <c r="C218" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D218" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E218" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F218" s="15"/>
-      <c r="G218" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H218" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="I218" s="39" t="s">
-        <v>355</v>
-      </c>
-      <c r="J218" s="13" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="219" spans="1:10" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="64"/>
-      <c r="B219" s="1">
-        <f>B218+1</f>
-        <v>2</v>
-      </c>
-      <c r="C219" s="64" t="s">
-        <v>18</v>
-      </c>
-      <c r="D219" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E219" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F219" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G219" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="H219" s="65" t="s">
-        <v>15</v>
-      </c>
-      <c r="I219" s="66" t="s">
+      <c r="D217" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E217" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G217" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H217" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="I217" s="65" t="s">
         <v>365</v>
       </c>
-      <c r="J219" s="43" t="s">
+      <c r="J217" s="13" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="220" spans="1:10" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="64"/>
-      <c r="B220" s="1">
-        <f t="shared" ref="B220:B223" si="12">B219+1</f>
-        <v>3</v>
-      </c>
-      <c r="C220" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="D220" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E220" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F220" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G220" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H220" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="I220" s="66" t="s">
-        <v>367</v>
-      </c>
-      <c r="J220" s="13" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="221" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="67"/>
-      <c r="B221" s="1">
+    <row r="218" spans="1:10" ht="15" customHeight="1">
+      <c r="A218" s="66"/>
+      <c r="B218" s="1">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="C221" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D221" s="3" t="s">
+      <c r="C218" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E221" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F221" s="1" t="s">
+      <c r="D218" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G221" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H221" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="I221" s="33" t="s">
-        <v>369</v>
-      </c>
-      <c r="J221" s="3" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="222" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="67"/>
-      <c r="B222" s="1">
+      <c r="E218" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G218" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H218" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="I218" s="33" t="s">
+        <v>367</v>
+      </c>
+      <c r="J218" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" ht="15" customHeight="1">
+      <c r="A219" s="66"/>
+      <c r="B219" s="1">
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="C222" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="D222" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E222" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F222" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G222" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H222" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I222" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="J222" s="17" t="s">
+      <c r="C219" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D219" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="223" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="64"/>
-      <c r="B223" s="1">
+      <c r="E219" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G219" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H219" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I219" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="J219" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" ht="15" customHeight="1">
+      <c r="A220" s="63"/>
+      <c r="B220" s="1">
         <f t="shared" si="12"/>
         <v>6</v>
       </c>
-      <c r="C223" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D223" s="25" t="s">
+      <c r="C220" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D220" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E220" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F220" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G220" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H220" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="I220" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="J220" s="17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" ht="15" customHeight="1">
+      <c r="A221" s="63"/>
+      <c r="C221" s="17"/>
+      <c r="E221" s="20"/>
+      <c r="F221" s="20"/>
+      <c r="G221" s="20"/>
+      <c r="H221" s="20"/>
+      <c r="I221" s="16"/>
+      <c r="J221" s="17"/>
+    </row>
+    <row r="222" spans="1:10" ht="15" customHeight="1">
+      <c r="B222" s="3"/>
+      <c r="C222" s="3"/>
+      <c r="H222" s="68"/>
+      <c r="I222" s="3"/>
+    </row>
+    <row r="223" spans="1:10" ht="41.45" customHeight="1">
+      <c r="A223" s="27" t="s">
+        <v>369</v>
+      </c>
+      <c r="B223" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C223" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D223" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E223" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F223" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="G223" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H223" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="I223" s="29"/>
+      <c r="J223" s="29" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" ht="15" customHeight="1">
+      <c r="A224" s="13"/>
+      <c r="B224" s="15">
+        <v>1</v>
+      </c>
+      <c r="C224" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E223" s="20" t="s">
+      <c r="D224" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F223" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="G223" s="20" t="s">
+      <c r="E224" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F224" s="15"/>
+      <c r="G224" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H224" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="I224" s="39" t="s">
+        <v>341</v>
+      </c>
+      <c r="J224" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14" ht="15" customHeight="1">
+      <c r="B225" s="1">
+        <f>B224+1</f>
+        <v>2</v>
+      </c>
+      <c r="C225" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D225" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H223" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="I223" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="J223" s="17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="224" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="64"/>
-      <c r="C224" s="17"/>
-      <c r="E224" s="20"/>
-      <c r="F224" s="20"/>
-      <c r="G224" s="20"/>
-      <c r="H224" s="20"/>
-      <c r="I224" s="16"/>
-      <c r="J224" s="17"/>
-    </row>
-    <row r="225" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B225" s="3"/>
-      <c r="C225" s="3"/>
-      <c r="H225" s="69"/>
-      <c r="I225" s="3"/>
-    </row>
-    <row r="226" spans="1:14" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="27" t="s">
-        <v>371</v>
-      </c>
-      <c r="B226" s="28" t="s">
+      <c r="E225" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G225" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H225" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="I225" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="J225" s="17" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" ht="15" customHeight="1">
+      <c r="A226" s="21"/>
+      <c r="B226" s="1">
+        <f t="shared" ref="B226:B228" si="13">B225+1</f>
         <v>3</v>
       </c>
-      <c r="C226" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D226" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="E226" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="F226" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="G226" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="H226" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="I226" s="29"/>
-      <c r="J226" s="29" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="227" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A227" s="13"/>
-      <c r="B227" s="15">
-        <v>1</v>
-      </c>
-      <c r="C227" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D227" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E227" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F227" s="15"/>
-      <c r="G227" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H227" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="I227" s="39" t="s">
-        <v>343</v>
-      </c>
-      <c r="J227" s="3" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="228" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B228" s="1">
-        <f>B227+1</f>
-        <v>2</v>
-      </c>
-      <c r="C228" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D228" s="3" t="s">
+      <c r="C226" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E228" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F228" s="1" t="s">
+      <c r="D226" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G228" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="H228" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="I228" s="16" t="s">
+      <c r="E226" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G226" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H226" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="I226" s="16" t="s">
         <v>374</v>
       </c>
-      <c r="J228" s="17" t="s">
+      <c r="J226" s="17" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="229" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="21"/>
-      <c r="B229" s="1">
-        <f t="shared" ref="B229:B231" si="13">B228+1</f>
-        <v>3</v>
-      </c>
-      <c r="C229" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D229" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E229" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F229" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G229" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H229" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="I229" s="16" t="s">
-        <v>376</v>
-      </c>
-      <c r="J229" s="17" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="230" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="21"/>
-      <c r="B230" s="1">
+    <row r="227" spans="1:14" ht="15" customHeight="1">
+      <c r="A227" s="21"/>
+      <c r="B227" s="1">
         <f t="shared" si="13"/>
         <v>4</v>
       </c>
-      <c r="C230" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D230" s="3" t="s">
+      <c r="C227" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E230" s="20" t="s">
+      <c r="D227" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F230" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G230" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H230" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="I230" s="16" t="s">
-        <v>378</v>
-      </c>
-      <c r="J230" s="3" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="231" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B231" s="1">
+      <c r="E227" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G227" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H227" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="I227" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="J227" s="3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14" ht="15.6" customHeight="1">
+      <c r="B228" s="1">
         <f t="shared" si="13"/>
         <v>5</v>
       </c>
-      <c r="C231" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D231" s="3" t="s">
+      <c r="C228" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E231" s="20" t="s">
+      <c r="D228" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F231" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G231" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H231" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I231" s="37" t="s">
-        <v>380</v>
-      </c>
-      <c r="J231" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="K231" s="17"/>
-      <c r="L231" s="17"/>
-      <c r="M231" s="17"/>
-      <c r="N231" s="17"/>
-    </row>
+      <c r="E228" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G228" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H228" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I228" s="37" t="s">
+        <v>378</v>
+      </c>
+      <c r="J228" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="K228" s="17"/>
+      <c r="L228" s="17"/>
+      <c r="M228" s="17"/>
+      <c r="N228" s="17"/>
+    </row>
+    <row r="229" spans="1:14" ht="15.75"/>
+    <row r="230" spans="1:14" ht="15.75"/>
+    <row r="231" spans="1:14" ht="15.75"/>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="18" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="127" max="16383" man="1"/>
-  </rowBreaks>
 </worksheet>
 </file>
--- a/SPARSE_definitions.xlsx
+++ b/SPARSE_definitions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://czuvpraze-my.sharepoint.com/personal/keil_fzp_czu_cz/Documents/SPARSE_1.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="8_{DAD7F058-A159-4E98-B339-67D41B788509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4AFA51DD-297E-4E56-ABFB-1B5C17D830A6}"/>
+  <xr:revisionPtr revIDLastSave="112" documentId="8_{DAD7F058-A159-4E98-B339-67D41B788509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33802A5F-97E4-495A-BA7C-5E8D9CBE8A43}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{04E39BB4-1478-4632-9491-2ED1C62F4B56}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{04E39BB4-1478-4632-9491-2ED1C62F4B56}"/>
   </bookViews>
   <sheets>
     <sheet name="DEFINITIONS" sheetId="1" r:id="rId1"/>
@@ -1215,7 +1215,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1477,7 +1477,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1547,9 +1547,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1628,9 +1625,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1682,7 +1676,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1692,10 +1686,19 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normální" xfId="0" builtinId="0"/>
-    <cellStyle name="Špatně" xfId="1" builtinId="27"/>
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2011,31 +2014,31 @@
     <tabColor theme="9" tint="-0.249977111117893"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N231"/>
+  <dimension ref="A1:N228"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J205" sqref="J205"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A20" activeCellId="3" sqref="A199:A211 A127:A162 A56:A98 A4:A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" style="3" customWidth="1"/>
-    <col min="5" max="7" width="16.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="43.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="35.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" style="3" customWidth="1"/>
+    <col min="5" max="7" width="16.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43.109375" style="2" customWidth="1"/>
     <col min="10" max="10" width="232" style="2" customWidth="1"/>
-    <col min="11" max="11" width="20.5703125" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="8.5703125" style="2"/>
+    <col min="11" max="11" width="20.5546875" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="8.5546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1">
+    <row r="2" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -2051,7 +2054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="41.45" customHeight="1">
+    <row r="3" spans="1:10" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
@@ -2083,8 +2086,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1">
-      <c r="A4" s="11"/>
+    <row r="4" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="24"/>
       <c r="B4" s="12">
         <v>1</v>
       </c>
@@ -2111,7 +2114,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1">
+    <row r="5" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="74"/>
       <c r="B5" s="1">
         <f>B4+1</f>
         <v>2</v>
@@ -2141,8 +2145,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1">
-      <c r="A6" s="21"/>
+    <row r="6" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="24"/>
       <c r="B6" s="1">
         <f t="shared" ref="B6:B20" si="0">B5+1</f>
         <v>3</v>
@@ -2172,8 +2176,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1">
-      <c r="A7" s="23"/>
+    <row r="7" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="75"/>
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2203,8 +2207,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1">
-      <c r="A8" s="24"/>
+    <row r="8" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="76"/>
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2212,13 +2216,13 @@
       <c r="C8" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="24" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="25" t="s">
         <v>33</v>
       </c>
       <c r="G8" s="20" t="s">
@@ -2234,7 +2238,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1">
+    <row r="9" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="74"/>
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2264,8 +2269,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1">
-      <c r="A10" s="21"/>
+    <row r="10" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="24"/>
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2295,8 +2300,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1">
-      <c r="A11" s="21"/>
+    <row r="11" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="24"/>
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2326,8 +2331,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1">
-      <c r="A12" s="21"/>
+    <row r="12" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="24"/>
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2357,8 +2362,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1">
-      <c r="A13" s="17"/>
+    <row r="13" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="24"/>
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2366,13 +2371,13 @@
       <c r="C13" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="24" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="25" t="s">
         <v>33</v>
       </c>
       <c r="G13" s="20" t="s">
@@ -2388,8 +2393,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1">
-      <c r="A14" s="17"/>
+    <row r="14" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="24"/>
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2419,8 +2424,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1">
-      <c r="A15" s="17"/>
+    <row r="15" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="24"/>
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2428,13 +2433,13 @@
       <c r="C15" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="24" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="25" t="s">
         <v>33</v>
       </c>
       <c r="G15" s="20" t="s">
@@ -2450,8 +2455,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1">
-      <c r="A16" s="17"/>
+    <row r="16" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="24"/>
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2481,8 +2486,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15" customHeight="1">
-      <c r="A17" s="17"/>
+    <row r="17" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="24"/>
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2512,8 +2517,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15" customHeight="1">
-      <c r="A18" s="17"/>
+    <row r="18" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="24"/>
       <c r="B18" s="1">
         <f>B17+1</f>
         <v>15</v>
@@ -2543,8 +2548,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15" customHeight="1">
-      <c r="A19" s="17"/>
+    <row r="19" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="24"/>
       <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2552,13 +2557,13 @@
       <c r="C19" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="24" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="26" t="s">
+      <c r="F19" s="25" t="s">
         <v>33</v>
       </c>
       <c r="G19" s="20" t="s">
@@ -2574,8 +2579,8 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15" customHeight="1">
-      <c r="A20" s="17"/>
+    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="24"/>
       <c r="B20" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2583,13 +2588,13 @@
       <c r="C20" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="24" t="s">
         <v>13</v>
       </c>
       <c r="E20" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="26" t="s">
+      <c r="F20" s="25" t="s">
         <v>33</v>
       </c>
       <c r="G20" s="20" t="s">
@@ -2605,8 +2610,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:10" customFormat="1" ht="15" customHeight="1"/>
-    <row r="22" spans="1:10" ht="15" customHeight="1">
+    <row r="21" spans="1:10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C22"/>
       <c r="D22"/>
       <c r="E22" s="19"/>
@@ -2616,37 +2621,37 @@
       <c r="I22" s="17"/>
       <c r="J22" s="17"/>
     </row>
-    <row r="23" spans="1:10" ht="41.1" customHeight="1">
-      <c r="A23" s="27" t="s">
+    <row r="23" spans="1:10" ht="41.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="29" t="s">
+      <c r="D23" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="28" t="s">
+      <c r="E23" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="F23" s="28" t="s">
+      <c r="F23" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="G23" s="28" t="s">
+      <c r="G23" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="H23" s="28" t="s">
+      <c r="H23" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30" t="s">
+      <c r="I23" s="29"/>
+      <c r="J23" s="29" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15" customHeight="1">
+    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13"/>
       <c r="B24" s="15">
         <v>1</v>
@@ -2667,15 +2672,15 @@
       <c r="H24" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="I24" s="31" t="s">
+      <c r="I24" s="30" t="s">
         <v>49</v>
       </c>
       <c r="J24" s="13" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15" customHeight="1">
-      <c r="A25" s="32"/>
+    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="31"/>
       <c r="B25" s="1">
         <f>B24+1</f>
         <v>2</v>
@@ -2705,7 +2710,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15" customHeight="1">
+    <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="1">
         <f>B25+1</f>
         <v>3</v>
@@ -2735,12 +2740,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15" customHeight="1">
+    <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="1">
         <f t="shared" ref="B27:B28" si="1">B26+1</f>
         <v>4</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="24" t="s">
         <v>56</v>
       </c>
       <c r="D27" s="3" t="s">
@@ -2758,14 +2763,14 @@
       <c r="H27" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I27" s="33" t="s">
+      <c r="I27" s="32" t="s">
         <v>58</v>
       </c>
       <c r="J27" s="17" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15" customHeight="1">
+    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="1">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -2773,13 +2778,13 @@
       <c r="C28" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="25" t="s">
+      <c r="D28" s="24" t="s">
         <v>13</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F28" s="26" t="s">
+      <c r="F28" s="25" t="s">
         <v>33</v>
       </c>
       <c r="G28" s="20" t="s">
@@ -2795,7 +2800,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15" customHeight="1">
+    <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C29" s="17"/>
       <c r="E29" s="20"/>
       <c r="F29" s="20"/>
@@ -2804,42 +2809,42 @@
       <c r="I29" s="16"/>
       <c r="J29" s="17"/>
     </row>
-    <row r="30" spans="1:10" ht="15" customHeight="1">
+    <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D30" s="22"/>
-      <c r="E30" s="35"/>
-      <c r="G30" s="34"/>
-    </row>
-    <row r="31" spans="1:10" s="36" customFormat="1" ht="41.45" customHeight="1">
-      <c r="A31" s="27" t="s">
+      <c r="E30" s="34"/>
+      <c r="G30" s="33"/>
+    </row>
+    <row r="31" spans="1:10" s="35" customFormat="1" ht="41.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="29" t="s">
+      <c r="C31" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D31" s="29" t="s">
+      <c r="D31" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="28" t="s">
+      <c r="E31" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="F31" s="28" t="s">
+      <c r="F31" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="G31" s="28" t="s">
+      <c r="G31" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="H31" s="28" t="s">
+      <c r="H31" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30" t="s">
+      <c r="I31" s="29"/>
+      <c r="J31" s="29" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15" customHeight="1">
+    <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13"/>
       <c r="B32" s="15">
         <v>1</v>
@@ -2860,14 +2865,14 @@
       <c r="H32" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="I32" s="31" t="s">
+      <c r="I32" s="30" t="s">
         <v>45</v>
       </c>
       <c r="J32" s="13" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15" customHeight="1">
+    <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1">
         <f>B32+1</f>
         <v>2</v>
@@ -2893,11 +2898,11 @@
       <c r="I33" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="J33" s="40" t="s">
+      <c r="J33" s="39" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15" customHeight="1">
+    <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="1">
         <f>B33+1</f>
         <v>3</v>
@@ -2920,23 +2925,23 @@
       <c r="H34" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I34" s="32" t="s">
+      <c r="I34" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="J34" s="40" t="s">
+      <c r="J34" s="39" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15" customHeight="1">
+    <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C35" s="18"/>
       <c r="E35" s="20"/>
       <c r="F35" s="12"/>
       <c r="G35" s="19"/>
-      <c r="H35" s="34"/>
+      <c r="H35" s="33"/>
       <c r="I35" s="23"/>
       <c r="J35" s="13"/>
     </row>
-    <row r="36" spans="1:10" ht="15" customHeight="1">
+    <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C36" s="18"/>
       <c r="D36" s="18"/>
       <c r="E36" s="19"/>
@@ -2946,37 +2951,37 @@
       <c r="I36" s="17"/>
       <c r="J36" s="17"/>
     </row>
-    <row r="37" spans="1:10" ht="41.1" customHeight="1">
-      <c r="A37" s="27" t="s">
+    <row r="37" spans="1:10" ht="41.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="B37" s="28" t="s">
+      <c r="B37" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C37" s="29" t="s">
+      <c r="C37" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="29" t="s">
+      <c r="D37" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E37" s="28" t="s">
+      <c r="E37" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="F37" s="28" t="s">
+      <c r="F37" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="G37" s="28" t="s">
+      <c r="G37" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="H37" s="28" t="s">
+      <c r="H37" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30" t="s">
+      <c r="I37" s="29"/>
+      <c r="J37" s="29" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15" customHeight="1">
+    <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="13"/>
       <c r="B38" s="15">
         <v>1</v>
@@ -2997,14 +3002,14 @@
       <c r="H38" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="I38" s="31" t="s">
+      <c r="I38" s="30" t="s">
         <v>34</v>
       </c>
       <c r="J38" s="13" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="1:10" customFormat="1" ht="15" customHeight="1">
+    <row r="39" spans="1:10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="1">
         <f>B38+1</f>
         <v>2</v>
@@ -3034,7 +3039,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:10" customFormat="1" ht="15" customHeight="1">
+    <row r="40" spans="1:10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="1">
         <f>B39+1</f>
         <v>3</v>
@@ -3064,7 +3069,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:10" customFormat="1" ht="15" customHeight="1">
+    <row r="41" spans="1:10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="1">
         <f>B40+1</f>
         <v>4</v>
@@ -3094,54 +3099,54 @@
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15" customHeight="1">
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="34"/>
+    <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="33"/>
       <c r="J42"/>
     </row>
-    <row r="43" spans="1:10" ht="15" customHeight="1">
-      <c r="C43" s="38"/>
+    <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="37"/>
       <c r="D43" s="22"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="33"/>
       <c r="J43"/>
     </row>
-    <row r="44" spans="1:10" s="36" customFormat="1" ht="41.45" customHeight="1">
-      <c r="A44" s="27" t="s">
+    <row r="44" spans="1:10" s="35" customFormat="1" ht="41.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="B44" s="28" t="s">
+      <c r="B44" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C44" s="29" t="s">
+      <c r="C44" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D44" s="29" t="s">
+      <c r="D44" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E44" s="28" t="s">
+      <c r="E44" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="F44" s="28" t="s">
+      <c r="F44" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="G44" s="28" t="s">
+      <c r="G44" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="H44" s="28" t="s">
+      <c r="H44" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="I44" s="30"/>
-      <c r="J44" s="30" t="s">
+      <c r="I44" s="29"/>
+      <c r="J44" s="29" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15" customHeight="1">
+    <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="13"/>
       <c r="B45" s="15">
         <v>1</v>
@@ -3162,14 +3167,14 @@
       <c r="H45" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="I45" s="31" t="s">
+      <c r="I45" s="30" t="s">
         <v>93</v>
       </c>
       <c r="J45" s="13" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15" customHeight="1">
+    <row r="46" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="1">
         <f>B45+1</f>
         <v>2</v>
@@ -3192,14 +3197,14 @@
       <c r="H46" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I46" s="32" t="s">
+      <c r="I46" s="31" t="s">
         <v>95</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="15" customHeight="1">
+    <row r="47" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="1">
         <f t="shared" ref="B47:B52" si="2">B46+1</f>
         <v>3</v>
@@ -3222,14 +3227,14 @@
       <c r="H47" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I47" s="32" t="s">
+      <c r="I47" s="31" t="s">
         <v>97</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="15" customHeight="1">
+    <row r="48" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="1">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -3252,14 +3257,14 @@
       <c r="H48" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I48" s="32" t="s">
+      <c r="I48" s="31" t="s">
         <v>99</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="15" customHeight="1">
+    <row r="49" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="1">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -3282,14 +3287,14 @@
       <c r="H49" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I49" s="32" t="s">
+      <c r="I49" s="31" t="s">
         <v>101</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="15" customHeight="1">
+    <row r="50" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="1">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -3312,19 +3317,19 @@
       <c r="H50" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I50" s="32" t="s">
+      <c r="I50" s="31" t="s">
         <v>103</v>
       </c>
       <c r="J50" s="22" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="15" customHeight="1">
+    <row r="51" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="1">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C51" s="25" t="s">
+      <c r="C51" s="24" t="s">
         <v>56</v>
       </c>
       <c r="D51" s="3" t="s">
@@ -3342,14 +3347,14 @@
       <c r="H51" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I51" s="33" t="s">
+      <c r="I51" s="32" t="s">
         <v>58</v>
       </c>
       <c r="J51" s="17" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="15" customHeight="1">
+    <row r="52" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="1">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -3357,13 +3362,13 @@
       <c r="C52" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D52" s="25" t="s">
+      <c r="D52" s="24" t="s">
         <v>13</v>
       </c>
       <c r="E52" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F52" s="26" t="s">
+      <c r="F52" s="25" t="s">
         <v>33</v>
       </c>
       <c r="G52" s="20" t="s">
@@ -3379,23 +3384,23 @@
         <v>74</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="15" customHeight="1">
-      <c r="C53" s="38"/>
+    <row r="53" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C53" s="37"/>
       <c r="D53" s="22"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="35"/>
-      <c r="G53" s="35"/>
-      <c r="H53" s="34"/>
-    </row>
-    <row r="54" spans="1:10" ht="15" customHeight="1">
-      <c r="C54" s="38"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="33"/>
+    </row>
+    <row r="54" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C54" s="37"/>
       <c r="D54" s="22"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="35"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="34"/>
-    </row>
-    <row r="55" spans="1:10" ht="41.45" customHeight="1">
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="33"/>
+    </row>
+    <row r="55" spans="1:10" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
         <v>105</v>
       </c>
@@ -3425,7 +3430,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="15" customHeight="1">
+    <row r="56" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="13"/>
       <c r="B56" s="15">
         <v>1</v>
@@ -3448,14 +3453,14 @@
       <c r="H56" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="I56" s="39" t="s">
+      <c r="I56" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="J56" s="71" t="s">
+      <c r="J56" s="69" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="15" customHeight="1">
+    <row r="57" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="17"/>
       <c r="B57" s="1">
         <f>B56+1</f>
@@ -3464,13 +3469,13 @@
       <c r="C57" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D57" s="25" t="s">
+      <c r="D57" s="24" t="s">
         <v>13</v>
       </c>
       <c r="E57" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F57" s="26" t="s">
+      <c r="F57" s="25" t="s">
         <v>33</v>
       </c>
       <c r="G57" s="20" t="s">
@@ -3482,11 +3487,11 @@
       <c r="I57" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="J57" s="48" t="s">
+      <c r="J57" s="47" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="15" customHeight="1">
+    <row r="58" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="21"/>
       <c r="B58" s="1">
         <f t="shared" ref="B58:B61" si="3">B57+1</f>
@@ -3495,7 +3500,7 @@
       <c r="C58" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D58" s="25" t="s">
+      <c r="D58" s="24" t="s">
         <v>13</v>
       </c>
       <c r="E58" s="20" t="s">
@@ -3513,11 +3518,11 @@
       <c r="I58" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="J58" s="48" t="s">
+      <c r="J58" s="47" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="15" customHeight="1">
+    <row r="59" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="21"/>
       <c r="B59" s="1">
         <f t="shared" si="3"/>
@@ -3544,12 +3549,12 @@
       <c r="I59" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="J59" s="48" t="s">
+      <c r="J59" s="47" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="15" customHeight="1">
-      <c r="A60"/>
+    <row r="60" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="13"/>
       <c r="B60" s="1">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -3575,11 +3580,12 @@
       <c r="I60" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="J60" s="48" t="s">
+      <c r="J60" s="47" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="15" customHeight="1">
+    <row r="61" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="17"/>
       <c r="B61" s="1">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -3605,12 +3611,12 @@
       <c r="I61" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="J61" s="48" t="s">
+      <c r="J61" s="47" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="15" customHeight="1">
-      <c r="A62" s="17"/>
+    <row r="62" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="21"/>
       <c r="B62" s="1">
         <f>B61+1</f>
         <v>7</v>
@@ -3624,7 +3630,7 @@
       <c r="E62" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F62" s="26" t="s">
+      <c r="F62" s="25" t="s">
         <v>33</v>
       </c>
       <c r="G62" s="20" t="s">
@@ -3636,12 +3642,12 @@
       <c r="I62" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="J62" s="48" t="s">
+      <c r="J62" s="47" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="15" customHeight="1">
-      <c r="A63" s="17"/>
+    <row r="63" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="21"/>
       <c r="B63" s="1">
         <f>B62+1</f>
         <v>8</v>
@@ -3667,12 +3673,12 @@
       <c r="I63" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="J63" s="45" t="s">
+      <c r="J63" s="44" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="15" customHeight="1">
-      <c r="A64" s="3"/>
+    <row r="64" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="13"/>
       <c r="B64" s="1">
         <f>B63+1</f>
         <v>9</v>
@@ -3698,12 +3704,12 @@
       <c r="I64" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="J64" s="48" t="s">
+      <c r="J64" s="47" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="15" customHeight="1">
-      <c r="A65"/>
+    <row r="65" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="17"/>
       <c r="B65" s="1">
         <f>B64+1</f>
         <v>10</v>
@@ -3729,12 +3735,12 @@
       <c r="I65" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="J65" s="48" t="s">
+      <c r="J65" s="47" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="15" customHeight="1">
-      <c r="A66"/>
+    <row r="66" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="21"/>
       <c r="B66" s="1">
         <f>B65+1</f>
         <v>11</v>
@@ -3760,12 +3766,12 @@
       <c r="I66" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="J66" s="48" t="s">
+      <c r="J66" s="47" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="15" customHeight="1">
-      <c r="A67" s="17"/>
+    <row r="67" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="21"/>
       <c r="B67" s="1">
         <f t="shared" ref="B67:B98" si="4">B66+1</f>
         <v>12</v>
@@ -3791,12 +3797,12 @@
       <c r="I67" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="J67" s="72" t="s">
+      <c r="J67" s="70" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="15" customHeight="1">
-      <c r="A68" s="17"/>
+    <row r="68" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="13"/>
       <c r="B68" s="1">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -3810,7 +3816,7 @@
       <c r="E68" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F68" s="26" t="s">
+      <c r="F68" s="25" t="s">
         <v>33</v>
       </c>
       <c r="G68" s="20" t="s">
@@ -3822,11 +3828,11 @@
       <c r="I68" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="J68" s="45" t="s">
+      <c r="J68" s="44" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="15" customHeight="1">
+    <row r="69" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="17"/>
       <c r="B69" s="1">
         <f t="shared" si="4"/>
@@ -3841,7 +3847,7 @@
       <c r="E69" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F69" s="26" t="s">
+      <c r="F69" s="25" t="s">
         <v>33</v>
       </c>
       <c r="G69" s="20" t="s">
@@ -3853,12 +3859,12 @@
       <c r="I69" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="J69" s="45" t="s">
+      <c r="J69" s="44" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="15" customHeight="1">
-      <c r="A70" s="17"/>
+    <row r="70" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="21"/>
       <c r="B70" s="1">
         <f t="shared" si="4"/>
         <v>15</v>
@@ -3884,11 +3890,11 @@
       <c r="I70" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="J70" s="45" t="s">
+      <c r="J70" s="44" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="15" customHeight="1">
+    <row r="71" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="21"/>
       <c r="B71" s="1">
         <f t="shared" si="4"/>
@@ -3915,11 +3921,12 @@
       <c r="I71" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="J71" s="48" t="s">
+      <c r="J71" s="47" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="15" customHeight="1">
+    <row r="72" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="13"/>
       <c r="B72" s="1">
         <f t="shared" si="4"/>
         <v>17</v>
@@ -3945,11 +3952,12 @@
       <c r="I72" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="J72" s="48" t="s">
+      <c r="J72" s="47" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="15" customHeight="1">
+    <row r="73" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="17"/>
       <c r="B73" s="1">
         <f t="shared" si="4"/>
         <v>18</v>
@@ -3975,11 +3983,12 @@
       <c r="I73" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="J73" s="45" t="s">
+      <c r="J73" s="44" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="15" customHeight="1">
+    <row r="74" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="21"/>
       <c r="B74" s="1">
         <f t="shared" si="4"/>
         <v>19</v>
@@ -4005,11 +4014,12 @@
       <c r="I74" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="J74" s="73" t="s">
+      <c r="J74" s="71" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="15" customHeight="1">
+    <row r="75" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="21"/>
       <c r="B75" s="1">
         <f t="shared" si="4"/>
         <v>20</v>
@@ -4035,12 +4045,12 @@
       <c r="I75" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="J75" s="45" t="s">
+      <c r="J75" s="44" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="15" customHeight="1">
-      <c r="A76" s="25"/>
+    <row r="76" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="13"/>
       <c r="B76" s="1">
         <f t="shared" si="4"/>
         <v>21</v>
@@ -4066,12 +4076,12 @@
       <c r="I76" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="J76" s="45" t="s">
+      <c r="J76" s="44" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="15" customHeight="1">
-      <c r="A77" s="21"/>
+    <row r="77" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="17"/>
       <c r="B77" s="1">
         <f t="shared" si="4"/>
         <v>22</v>
@@ -4097,12 +4107,12 @@
       <c r="I77" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="J77" s="45" t="s">
+      <c r="J77" s="44" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="15" customHeight="1">
-      <c r="A78" s="17"/>
+    <row r="78" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="21"/>
       <c r="B78" s="1">
         <f t="shared" si="4"/>
         <v>23</v>
@@ -4128,12 +4138,12 @@
       <c r="I78" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="J78" s="45" t="s">
+      <c r="J78" s="44" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="15" customHeight="1">
-      <c r="A79" s="17"/>
+    <row r="79" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="21"/>
       <c r="B79" s="1">
         <f t="shared" si="4"/>
         <v>24</v>
@@ -4159,26 +4169,26 @@
       <c r="I79" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="J79" s="45" t="s">
+      <c r="J79" s="44" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="15" customHeight="1">
-      <c r="A80" s="17"/>
+    <row r="80" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="13"/>
       <c r="B80" s="1">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="C80" s="40" t="s">
+      <c r="C80" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="D80" s="41" t="s">
+      <c r="D80" s="40" t="s">
         <v>21</v>
       </c>
       <c r="E80" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F80" s="26" t="s">
+      <c r="F80" s="25" t="s">
         <v>33</v>
       </c>
       <c r="G80" s="20" t="s">
@@ -4190,11 +4200,11 @@
       <c r="I80" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="J80" s="74" t="s">
+      <c r="J80" s="72" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="15" customHeight="1">
+    <row r="81" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="17"/>
       <c r="B81" s="1">
         <f t="shared" si="4"/>
@@ -4209,7 +4219,7 @@
       <c r="E81" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F81" s="26" t="s">
+      <c r="F81" s="25" t="s">
         <v>33</v>
       </c>
       <c r="G81" s="20" t="s">
@@ -4221,12 +4231,12 @@
       <c r="I81" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="J81" s="45" t="s">
+      <c r="J81" s="44" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="82" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A82"/>
+    <row r="82" spans="1:10" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="21"/>
       <c r="B82" s="1">
         <f t="shared" si="4"/>
         <v>27</v>
@@ -4252,12 +4262,12 @@
       <c r="I82" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="J82" s="75" t="s">
+      <c r="J82" s="73" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="15" customHeight="1">
-      <c r="A83" s="17"/>
+    <row r="83" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="21"/>
       <c r="B83" s="1">
         <f t="shared" si="4"/>
         <v>28</v>
@@ -4283,12 +4293,12 @@
       <c r="I83" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="J83" s="48" t="s">
+      <c r="J83" s="47" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="15" customHeight="1">
-      <c r="A84" s="17"/>
+    <row r="84" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="13"/>
       <c r="B84" s="1">
         <f t="shared" si="4"/>
         <v>29</v>
@@ -4314,12 +4324,12 @@
       <c r="I84" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="J84" s="48" t="s">
+      <c r="J84" s="47" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="15" customHeight="1">
-      <c r="A85" s="25"/>
+    <row r="85" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="17"/>
       <c r="B85" s="1">
         <f t="shared" si="4"/>
         <v>30</v>
@@ -4345,12 +4355,12 @@
       <c r="I85" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="J85" s="48" t="s">
+      <c r="J85" s="47" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="15" customHeight="1">
-      <c r="A86" s="25"/>
+    <row r="86" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="21"/>
       <c r="B86" s="1">
         <f t="shared" si="4"/>
         <v>31</v>
@@ -4376,12 +4386,12 @@
       <c r="I86" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="J86" s="48" t="s">
+      <c r="J86" s="47" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="15" customHeight="1">
-      <c r="A87" s="25"/>
+    <row r="87" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="21"/>
       <c r="B87" s="1">
         <f t="shared" si="4"/>
         <v>32</v>
@@ -4407,12 +4417,12 @@
       <c r="I87" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="J87" s="48" t="s">
+      <c r="J87" s="47" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="15" customHeight="1">
-      <c r="A88" s="25"/>
+    <row r="88" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="13"/>
       <c r="B88" s="1">
         <f t="shared" si="4"/>
         <v>33</v>
@@ -4438,12 +4448,12 @@
       <c r="I88" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="J88" s="48" t="s">
+      <c r="J88" s="47" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="15" customHeight="1">
-      <c r="A89" s="25"/>
+    <row r="89" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="17"/>
       <c r="B89" s="1">
         <f t="shared" si="4"/>
         <v>34</v>
@@ -4469,12 +4479,12 @@
       <c r="I89" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="J89" s="48" t="s">
+      <c r="J89" s="47" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="15" customHeight="1">
-      <c r="A90" s="25"/>
+    <row r="90" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="21"/>
       <c r="B90" s="1">
         <f t="shared" si="4"/>
         <v>35</v>
@@ -4500,11 +4510,12 @@
       <c r="I90" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="J90" s="48" t="s">
+      <c r="J90" s="47" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="15" customHeight="1">
+    <row r="91" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="21"/>
       <c r="B91" s="1">
         <f t="shared" si="4"/>
         <v>36</v>
@@ -4530,12 +4541,12 @@
       <c r="I91" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="J91" s="48" t="s">
+      <c r="J91" s="47" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="15" customHeight="1">
-      <c r="A92" s="25"/>
+    <row r="92" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="13"/>
       <c r="B92" s="1">
         <f t="shared" si="4"/>
         <v>37</v>
@@ -4561,12 +4572,12 @@
       <c r="I92" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="J92" s="48" t="s">
+      <c r="J92" s="47" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="15" customHeight="1">
-      <c r="A93" s="25"/>
+    <row r="93" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="17"/>
       <c r="B93" s="1">
         <f t="shared" si="4"/>
         <v>38</v>
@@ -4592,12 +4603,12 @@
       <c r="I93" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="J93" s="48" t="s">
+      <c r="J93" s="47" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="15" customHeight="1">
-      <c r="A94" s="25"/>
+    <row r="94" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="21"/>
       <c r="B94" s="1">
         <f t="shared" si="4"/>
         <v>39</v>
@@ -4623,12 +4634,12 @@
       <c r="I94" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="J94" s="48" t="s">
+      <c r="J94" s="47" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="15" customHeight="1">
-      <c r="A95" s="25"/>
+    <row r="95" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="21"/>
       <c r="B95" s="1">
         <f t="shared" si="4"/>
         <v>40</v>
@@ -4654,12 +4665,12 @@
       <c r="I95" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="J95" s="48" t="s">
+      <c r="J95" s="47" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="15" customHeight="1">
-      <c r="A96" s="25"/>
+    <row r="96" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="13"/>
       <c r="B96" s="1">
         <f t="shared" si="4"/>
         <v>41</v>
@@ -4685,12 +4696,12 @@
       <c r="I96" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="J96" s="48" t="s">
+      <c r="J96" s="47" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="15" customHeight="1">
-      <c r="A97" s="25"/>
+    <row r="97" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="17"/>
       <c r="B97" s="1">
         <f t="shared" si="4"/>
         <v>42</v>
@@ -4716,12 +4727,12 @@
       <c r="I97" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="J97" s="48" t="s">
+      <c r="J97" s="47" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="15" customHeight="1">
-      <c r="A98" s="25"/>
+    <row r="98" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="21"/>
       <c r="B98" s="1">
         <f t="shared" si="4"/>
         <v>43</v>
@@ -4747,61 +4758,61 @@
       <c r="I98" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="J98" s="48" t="s">
+      <c r="J98" s="47" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="15" customHeight="1">
-      <c r="C99" s="38"/>
+    <row r="99" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C99" s="37"/>
       <c r="D99" s="22"/>
-      <c r="E99" s="35"/>
-      <c r="F99" s="35"/>
-      <c r="G99" s="35"/>
-      <c r="H99" s="35"/>
-      <c r="I99" s="35"/>
-      <c r="J99" s="35"/>
-    </row>
-    <row r="100" spans="1:10" ht="15" customHeight="1">
-      <c r="C100" s="38"/>
+      <c r="E99" s="34"/>
+      <c r="F99" s="34"/>
+      <c r="G99" s="34"/>
+      <c r="H99" s="34"/>
+      <c r="I99" s="34"/>
+      <c r="J99" s="34"/>
+    </row>
+    <row r="100" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C100" s="37"/>
       <c r="D100" s="22"/>
-      <c r="E100" s="35"/>
-      <c r="F100" s="35"/>
-      <c r="G100" s="35"/>
-      <c r="H100" s="34"/>
-      <c r="I100" s="35"/>
-      <c r="J100" s="44"/>
-    </row>
-    <row r="101" spans="1:10" ht="41.45" customHeight="1">
-      <c r="A101" s="27" t="s">
+      <c r="E100" s="34"/>
+      <c r="F100" s="34"/>
+      <c r="G100" s="34"/>
+      <c r="H100" s="33"/>
+      <c r="I100" s="34"/>
+      <c r="J100" s="43"/>
+    </row>
+    <row r="101" spans="1:10" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="B101" s="28" t="s">
+      <c r="B101" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C101" s="29" t="s">
+      <c r="C101" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D101" s="29" t="s">
+      <c r="D101" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E101" s="28" t="s">
+      <c r="E101" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="F101" s="28" t="s">
+      <c r="F101" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="G101" s="28" t="s">
+      <c r="G101" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="H101" s="28" t="s">
+      <c r="H101" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="I101" s="30"/>
-      <c r="J101" s="30" t="s">
+      <c r="I101" s="29"/>
+      <c r="J101" s="29" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="15" customHeight="1">
+    <row r="102" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="13"/>
       <c r="B102" s="15">
         <v>1</v>
@@ -4822,14 +4833,14 @@
       <c r="H102" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="I102" s="31" t="s">
+      <c r="I102" s="30" t="s">
         <v>118</v>
       </c>
       <c r="J102" s="13" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B103" s="1">
         <f>B102+1</f>
         <v>2</v>
@@ -4859,7 +4870,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B104" s="1">
         <f>B103+1</f>
         <v>3</v>
@@ -4889,7 +4900,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B105" s="1">
         <f t="shared" ref="B105:B111" si="5">B104+1</f>
         <v>4</v>
@@ -4919,7 +4930,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B106" s="1">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -4942,14 +4953,14 @@
       <c r="H106" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I106" s="32" t="s">
+      <c r="I106" s="31" t="s">
         <v>206</v>
       </c>
       <c r="J106" s="22" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B107" s="1">
         <f t="shared" si="5"/>
         <v>6</v>
@@ -4972,14 +4983,14 @@
       <c r="H107" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I107" s="32" t="s">
+      <c r="I107" s="31" t="s">
         <v>208</v>
       </c>
       <c r="J107" s="22" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B108" s="1">
         <f t="shared" si="5"/>
         <v>7</v>
@@ -5002,14 +5013,14 @@
       <c r="H108" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I108" s="32" t="s">
+      <c r="I108" s="31" t="s">
         <v>211</v>
       </c>
       <c r="J108" s="22" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B109" s="1">
         <f t="shared" si="5"/>
         <v>8</v>
@@ -5032,14 +5043,14 @@
       <c r="H109" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I109" s="32" t="s">
+      <c r="I109" s="31" t="s">
         <v>213</v>
       </c>
-      <c r="J109" s="45" t="s">
+      <c r="J109" s="44" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B110" s="1">
         <f t="shared" si="5"/>
         <v>9</v>
@@ -5062,14 +5073,14 @@
       <c r="H110" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I110" s="32" t="s">
+      <c r="I110" s="31" t="s">
         <v>215</v>
       </c>
-      <c r="J110" s="45" t="s">
+      <c r="J110" s="44" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B111" s="1">
         <f t="shared" si="5"/>
         <v>10</v>
@@ -5092,59 +5103,59 @@
       <c r="H111" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I111" s="32" t="s">
+      <c r="I111" s="31" t="s">
         <v>217</v>
       </c>
-      <c r="J111" s="45" t="s">
+      <c r="J111" s="44" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C112" s="18"/>
       <c r="H112" s="19"/>
       <c r="I112"/>
-      <c r="J112" s="46"/>
-    </row>
-    <row r="113" spans="1:10" ht="15" customHeight="1">
+      <c r="J112" s="45"/>
+    </row>
+    <row r="113" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B113" s="18"/>
       <c r="C113" s="18"/>
-      <c r="E113" s="35"/>
-      <c r="G113" s="35"/>
+      <c r="E113" s="34"/>
+      <c r="G113" s="34"/>
       <c r="H113" s="19"/>
-      <c r="I113" s="32"/>
+      <c r="I113" s="31"/>
       <c r="J113"/>
     </row>
-    <row r="114" spans="1:10" ht="41.45" customHeight="1">
-      <c r="A114" s="27" t="s">
+    <row r="114" spans="1:10" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="B114" s="28" t="s">
+      <c r="B114" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C114" s="29" t="s">
+      <c r="C114" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D114" s="29" t="s">
+      <c r="D114" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E114" s="28" t="s">
+      <c r="E114" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="F114" s="28" t="s">
+      <c r="F114" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="G114" s="28" t="s">
+      <c r="G114" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="H114" s="28" t="s">
+      <c r="H114" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="I114" s="30"/>
-      <c r="J114" s="30" t="s">
+      <c r="I114" s="29"/>
+      <c r="J114" s="29" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="15" customHeight="1">
+    <row r="115" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="13"/>
       <c r="B115" s="15">
         <v>1</v>
@@ -5165,14 +5176,14 @@
       <c r="H115" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="I115" s="31" t="s">
+      <c r="I115" s="30" t="s">
         <v>131</v>
       </c>
       <c r="J115" s="13" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B116" s="1">
         <f>B115+1</f>
         <v>2</v>
@@ -5195,59 +5206,59 @@
       <c r="H116" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I116" s="47" t="s">
+      <c r="I116" s="46" t="s">
         <v>222</v>
       </c>
       <c r="J116" s="3" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="15" customHeight="1">
+    <row r="117" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C117" s="18"/>
-      <c r="E117" s="35"/>
-      <c r="G117" s="35"/>
+      <c r="E117" s="34"/>
+      <c r="G117" s="34"/>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
       <c r="J117"/>
     </row>
-    <row r="118" spans="1:10" ht="15" customHeight="1">
-      <c r="E118" s="35"/>
-      <c r="G118" s="35"/>
+    <row r="118" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E118" s="34"/>
+      <c r="G118" s="34"/>
       <c r="H118" s="19"/>
-      <c r="I118" s="32"/>
+      <c r="I118" s="31"/>
       <c r="J118"/>
     </row>
-    <row r="119" spans="1:10" ht="41.45" customHeight="1">
-      <c r="A119" s="27" t="s">
+    <row r="119" spans="1:10" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="B119" s="28" t="s">
+      <c r="B119" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C119" s="29" t="s">
+      <c r="C119" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D119" s="29" t="s">
+      <c r="D119" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E119" s="28" t="s">
+      <c r="E119" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="F119" s="28" t="s">
+      <c r="F119" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="G119" s="28" t="s">
+      <c r="G119" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="H119" s="28" t="s">
+      <c r="H119" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="I119" s="30"/>
-      <c r="J119" s="30" t="s">
+      <c r="I119" s="29"/>
+      <c r="J119" s="29" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="15" customHeight="1">
+    <row r="120" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="13"/>
       <c r="B120" s="15">
         <v>1</v>
@@ -5268,14 +5279,14 @@
       <c r="H120" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="I120" s="31" t="s">
+      <c r="I120" s="30" t="s">
         <v>133</v>
       </c>
       <c r="J120" s="13" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B121" s="1">
         <f>B120+1</f>
         <v>2</v>
@@ -5298,19 +5309,19 @@
       <c r="H121" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I121" s="47" t="s">
+      <c r="I121" s="46" t="s">
         <v>227</v>
       </c>
-      <c r="J121" s="40" t="s">
+      <c r="J121" s="39" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="15.95" customHeight="1">
+    <row r="122" spans="1:10" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B122" s="1">
         <f t="shared" ref="B122:B123" si="6">B121+1</f>
         <v>3</v>
       </c>
-      <c r="C122" s="25" t="s">
+      <c r="C122" s="24" t="s">
         <v>56</v>
       </c>
       <c r="D122" s="3" t="s">
@@ -5328,14 +5339,14 @@
       <c r="H122" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I122" s="33" t="s">
+      <c r="I122" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="J122" s="48" t="s">
+      <c r="J122" s="47" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="123" spans="1:10" ht="15.95" customHeight="1">
+    <row r="123" spans="1:10" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B123" s="1">
         <f t="shared" si="6"/>
         <v>4</v>
@@ -5343,13 +5354,13 @@
       <c r="C123" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D123" s="25" t="s">
+      <c r="D123" s="24" t="s">
         <v>13</v>
       </c>
       <c r="E123" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F123" s="26" t="s">
+      <c r="F123" s="25" t="s">
         <v>33</v>
       </c>
       <c r="G123" s="20" t="s">
@@ -5361,28 +5372,28 @@
       <c r="I123" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="J123" s="48" t="s">
+      <c r="J123" s="47" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="124" spans="1:10" ht="15.95" customHeight="1">
+    <row r="124" spans="1:10" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C124" s="18"/>
-      <c r="D124" s="25"/>
+      <c r="D124" s="24"/>
       <c r="E124" s="20"/>
       <c r="F124" s="20"/>
       <c r="G124" s="20"/>
       <c r="H124" s="20"/>
-      <c r="I124" s="35"/>
+      <c r="I124" s="34"/>
       <c r="J124" s="17"/>
     </row>
-    <row r="125" spans="1:10" ht="15" customHeight="1">
+    <row r="125" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C125" s="18"/>
-      <c r="E125" s="35"/>
+      <c r="E125" s="34"/>
       <c r="H125" s="19"/>
       <c r="I125" s="19"/>
       <c r="J125"/>
     </row>
-    <row r="126" spans="1:10" ht="45" customHeight="1">
+    <row r="126" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="8" t="s">
         <v>229</v>
       </c>
@@ -5407,12 +5418,12 @@
       <c r="H126" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I126" s="69"/>
-      <c r="J126" s="70" t="s">
+      <c r="I126" s="67"/>
+      <c r="J126" s="68" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="127" spans="1:10" ht="15" customHeight="1">
+    <row r="127" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="13"/>
       <c r="B127" s="15">
         <v>1</v>
@@ -5433,85 +5444,85 @@
       <c r="H127" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="I127" s="39" t="s">
+      <c r="I127" s="38" t="s">
         <v>231</v>
       </c>
       <c r="J127" s="13" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="128" spans="1:10" ht="15" customHeight="1">
+    <row r="128" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="17"/>
       <c r="B128" s="1">
         <f>B127+1</f>
         <v>2</v>
       </c>
-      <c r="C128" s="25" t="s">
+      <c r="C128" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D128" s="25" t="s">
+      <c r="D128" s="24" t="s">
         <v>13</v>
       </c>
       <c r="E128" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F128" s="26" t="s">
+      <c r="F128" s="25" t="s">
         <v>33</v>
       </c>
       <c r="G128" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H128" s="26" t="s">
+      <c r="H128" s="25" t="s">
         <v>44</v>
       </c>
       <c r="I128" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="J128" s="25" t="s">
+      <c r="J128" s="24" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="129" spans="1:10" ht="15" customHeight="1">
+    <row r="129" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="17"/>
       <c r="B129" s="1">
         <f t="shared" ref="B129:B162" si="7">B128+1</f>
         <v>3</v>
       </c>
-      <c r="C129" s="25" t="s">
+      <c r="C129" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D129" s="25" t="s">
+      <c r="D129" s="24" t="s">
         <v>13</v>
       </c>
       <c r="E129" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F129" s="26" t="s">
+      <c r="F129" s="25" t="s">
         <v>33</v>
       </c>
       <c r="G129" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H129" s="26" t="s">
+      <c r="H129" s="25" t="s">
         <v>44</v>
       </c>
       <c r="I129" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="J129" s="25" t="s">
+      <c r="J129" s="24" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="15" customHeight="1">
+    <row r="130" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="17"/>
       <c r="B130" s="1">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="C130" s="25" t="s">
+      <c r="C130" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D130" s="25" t="s">
+      <c r="D130" s="24" t="s">
         <v>151</v>
       </c>
       <c r="E130" s="20" t="s">
@@ -5529,19 +5540,20 @@
       <c r="I130" s="23" t="s">
         <v>235</v>
       </c>
-      <c r="J130" s="25" t="s">
+      <c r="J130" s="24" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="131" spans="1:10" ht="15" customHeight="1">
+    <row r="131" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="13"/>
       <c r="B131" s="1">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="C131" s="25" t="s">
+      <c r="C131" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D131" s="25" t="s">
+      <c r="D131" s="24" t="s">
         <v>53</v>
       </c>
       <c r="E131" s="20" t="s">
@@ -5559,19 +5571,20 @@
       <c r="I131" s="23" t="s">
         <v>237</v>
       </c>
-      <c r="J131" s="25" t="s">
+      <c r="J131" s="24" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="15" customHeight="1">
+    <row r="132" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="17"/>
       <c r="B132" s="1">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="C132" s="25" t="s">
+      <c r="C132" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D132" s="25" t="s">
+      <c r="D132" s="24" t="s">
         <v>53</v>
       </c>
       <c r="E132" s="20" t="s">
@@ -5589,20 +5602,20 @@
       <c r="I132" s="23" t="s">
         <v>239</v>
       </c>
-      <c r="J132" s="25" t="s">
+      <c r="J132" s="24" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="133" spans="1:10" ht="15" customHeight="1">
+    <row r="133" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="17"/>
       <c r="B133" s="1">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="C133" s="25" t="s">
+      <c r="C133" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D133" s="25" t="s">
+      <c r="D133" s="24" t="s">
         <v>151</v>
       </c>
       <c r="E133" s="20" t="s">
@@ -5620,20 +5633,20 @@
       <c r="I133" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="J133" s="25" t="s">
+      <c r="J133" s="24" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="134" spans="1:10" ht="15" customHeight="1">
+    <row r="134" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="17"/>
       <c r="B134" s="1">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="C134" s="25" t="s">
+      <c r="C134" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D134" s="25" t="s">
+      <c r="D134" s="24" t="s">
         <v>53</v>
       </c>
       <c r="E134" s="20" t="s">
@@ -5651,20 +5664,20 @@
       <c r="I134" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="J134" s="25" t="s">
+      <c r="J134" s="24" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="135" spans="1:10" ht="15" customHeight="1">
-      <c r="A135" s="17"/>
+    <row r="135" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="13"/>
       <c r="B135" s="1">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="C135" s="25" t="s">
+      <c r="C135" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D135" s="25" t="s">
+      <c r="D135" s="24" t="s">
         <v>53</v>
       </c>
       <c r="E135" s="20" t="s">
@@ -5682,17 +5695,17 @@
       <c r="I135" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="J135" s="25" t="s">
+      <c r="J135" s="24" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="136" spans="1:10" ht="15" customHeight="1">
+    <row r="136" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="17"/>
       <c r="B136" s="1">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="C136" s="25" t="s">
+      <c r="C136" s="24" t="s">
         <v>19</v>
       </c>
       <c r="D136" s="3" t="s">
@@ -5713,17 +5726,17 @@
       <c r="I136" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="J136" s="49" t="s">
+      <c r="J136" s="48" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="137" spans="1:10" ht="15" customHeight="1">
+    <row r="137" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="17"/>
       <c r="B137" s="1">
         <f t="shared" si="7"/>
         <v>11</v>
       </c>
-      <c r="C137" s="25" t="s">
+      <c r="C137" s="24" t="s">
         <v>56</v>
       </c>
       <c r="D137" s="3" t="s">
@@ -5738,23 +5751,23 @@
       <c r="G137" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H137" s="26" t="s">
+      <c r="H137" s="25" t="s">
         <v>26</v>
       </c>
       <c r="I137" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="J137" s="25" t="s">
+      <c r="J137" s="24" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="138" spans="1:10" ht="15" customHeight="1">
+    <row r="138" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="17"/>
       <c r="B138" s="1">
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="C138" s="25" t="s">
+      <c r="C138" s="24" t="s">
         <v>56</v>
       </c>
       <c r="D138" s="3" t="s">
@@ -5769,26 +5782,26 @@
       <c r="G138" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H138" s="26" t="s">
+      <c r="H138" s="25" t="s">
         <v>26</v>
       </c>
       <c r="I138" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="J138" s="25" t="s">
+      <c r="J138" s="24" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="139" spans="1:10" ht="15" customHeight="1">
-      <c r="A139" s="17"/>
+    <row r="139" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="13"/>
       <c r="B139" s="1">
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
-      <c r="C139" s="25" t="s">
+      <c r="C139" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D139" s="25" t="s">
+      <c r="D139" s="24" t="s">
         <v>151</v>
       </c>
       <c r="E139" s="20" t="s">
@@ -5810,13 +5823,13 @@
         <v>254</v>
       </c>
     </row>
-    <row r="140" spans="1:10" ht="15" customHeight="1">
+    <row r="140" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="17"/>
       <c r="B140" s="1">
         <f t="shared" si="7"/>
         <v>14</v>
       </c>
-      <c r="C140" s="25" t="s">
+      <c r="C140" s="24" t="s">
         <v>32</v>
       </c>
       <c r="D140" s="3" t="s">
@@ -5831,7 +5844,7 @@
       <c r="G140" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H140" s="26" t="s">
+      <c r="H140" s="25" t="s">
         <v>26</v>
       </c>
       <c r="I140" s="16" t="s">
@@ -5841,13 +5854,13 @@
         <v>256</v>
       </c>
     </row>
-    <row r="141" spans="1:10" ht="15" customHeight="1">
+    <row r="141" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="17"/>
       <c r="B141" s="1">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="C141" s="25" t="s">
+      <c r="C141" s="24" t="s">
         <v>32</v>
       </c>
       <c r="D141" s="3" t="s">
@@ -5856,29 +5869,29 @@
       <c r="E141" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F141" s="26" t="s">
+      <c r="F141" s="25" t="s">
         <v>33</v>
       </c>
       <c r="G141" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H141" s="26" t="s">
+      <c r="H141" s="25" t="s">
         <v>26</v>
       </c>
       <c r="I141" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="J141" s="25" t="s">
+      <c r="J141" s="24" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="142" spans="1:10" ht="15" customHeight="1">
+    <row r="142" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="17"/>
       <c r="B142" s="1">
         <f t="shared" si="7"/>
         <v>16</v>
       </c>
-      <c r="C142" s="25" t="s">
+      <c r="C142" s="24" t="s">
         <v>32</v>
       </c>
       <c r="D142" s="3" t="s">
@@ -5887,29 +5900,29 @@
       <c r="E142" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F142" s="26" t="s">
+      <c r="F142" s="25" t="s">
         <v>33</v>
       </c>
       <c r="G142" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H142" s="26" t="s">
+      <c r="H142" s="25" t="s">
         <v>44</v>
       </c>
       <c r="I142" s="16" t="s">
         <v>259</v>
       </c>
-      <c r="J142" s="25" t="s">
+      <c r="J142" s="24" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="143" spans="1:10" ht="15" customHeight="1">
-      <c r="A143" s="17"/>
+    <row r="143" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="13"/>
       <c r="B143" s="1">
         <f t="shared" si="7"/>
         <v>17</v>
       </c>
-      <c r="C143" s="25" t="s">
+      <c r="C143" s="24" t="s">
         <v>24</v>
       </c>
       <c r="D143" s="3" t="s">
@@ -5934,13 +5947,13 @@
         <v>262</v>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="15" customHeight="1">
-      <c r="A144"/>
+    <row r="144" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="17"/>
       <c r="B144" s="1">
         <f t="shared" si="7"/>
         <v>18</v>
       </c>
-      <c r="C144" s="25" t="s">
+      <c r="C144" s="24" t="s">
         <v>19</v>
       </c>
       <c r="D144" s="3" t="s">
@@ -5961,17 +5974,17 @@
       <c r="I144" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="J144" s="50" t="s">
+      <c r="J144" s="49" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="145" spans="1:10" ht="15" customHeight="1">
+    <row r="145" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="17"/>
       <c r="B145" s="1">
         <f t="shared" si="7"/>
         <v>19</v>
       </c>
-      <c r="C145" s="25" t="s">
+      <c r="C145" s="24" t="s">
         <v>24</v>
       </c>
       <c r="D145" s="3" t="s">
@@ -5996,13 +6009,13 @@
         <v>266</v>
       </c>
     </row>
-    <row r="146" spans="1:10" ht="15" customHeight="1">
+    <row r="146" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="17"/>
       <c r="B146" s="1">
         <f>B145+1</f>
         <v>20</v>
       </c>
-      <c r="C146" s="25" t="s">
+      <c r="C146" s="24" t="s">
         <v>32</v>
       </c>
       <c r="D146" s="3" t="s">
@@ -6011,29 +6024,29 @@
       <c r="E146" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F146" s="26" t="s">
+      <c r="F146" s="25" t="s">
         <v>33</v>
       </c>
       <c r="G146" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H146" s="26" t="s">
+      <c r="H146" s="25" t="s">
         <v>44</v>
       </c>
       <c r="I146" s="16" t="s">
         <v>267</v>
       </c>
-      <c r="J146" s="50" t="s">
+      <c r="J146" s="49" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="147" spans="1:10" ht="15" customHeight="1">
-      <c r="A147" s="17"/>
+    <row r="147" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="13"/>
       <c r="B147" s="1">
         <f t="shared" si="7"/>
         <v>21</v>
       </c>
-      <c r="C147" s="25" t="s">
+      <c r="C147" s="24" t="s">
         <v>24</v>
       </c>
       <c r="D147" s="3" t="s">
@@ -6054,16 +6067,17 @@
       <c r="I147" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="J147" s="50" t="s">
+      <c r="J147" s="49" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="148" spans="1:10" s="51" customFormat="1" ht="15" customHeight="1">
+    <row r="148" spans="1:10" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="17"/>
       <c r="B148" s="1">
         <f t="shared" si="7"/>
         <v>22</v>
       </c>
-      <c r="C148" s="25" t="s">
+      <c r="C148" s="24" t="s">
         <v>19</v>
       </c>
       <c r="D148" s="3" t="s">
@@ -6084,17 +6098,17 @@
       <c r="I148" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="J148" s="50" t="s">
+      <c r="J148" s="49" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="149" spans="1:10" s="51" customFormat="1" ht="15" customHeight="1">
-      <c r="A149" s="52"/>
+    <row r="149" spans="1:10" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="17"/>
       <c r="B149" s="1">
         <f t="shared" si="7"/>
         <v>23</v>
       </c>
-      <c r="C149" s="25" t="s">
+      <c r="C149" s="24" t="s">
         <v>24</v>
       </c>
       <c r="D149" s="3" t="s">
@@ -6115,26 +6129,26 @@
       <c r="I149" s="16" t="s">
         <v>273</v>
       </c>
-      <c r="J149" s="50" t="s">
+      <c r="J149" s="49" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="150" spans="1:10" s="51" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A150" s="52"/>
+    <row r="150" spans="1:10" s="50" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="17"/>
       <c r="B150" s="1">
         <f t="shared" si="7"/>
         <v>24</v>
       </c>
-      <c r="C150" s="25" t="s">
+      <c r="C150" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="D150" s="41" t="s">
+      <c r="D150" s="40" t="s">
         <v>21</v>
       </c>
       <c r="E150" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F150" s="26" t="s">
+      <c r="F150" s="25" t="s">
         <v>33</v>
       </c>
       <c r="G150" s="20" t="s">
@@ -6146,26 +6160,26 @@
       <c r="I150" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="J150" s="50" t="s">
+      <c r="J150" s="49" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="151" spans="1:10" ht="15" customHeight="1">
-      <c r="A151" s="17"/>
+    <row r="151" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="13"/>
       <c r="B151" s="1">
         <f t="shared" si="7"/>
         <v>25</v>
       </c>
-      <c r="C151" s="25" t="s">
+      <c r="C151" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="D151" s="41" t="s">
+      <c r="D151" s="40" t="s">
         <v>21</v>
       </c>
       <c r="E151" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F151" s="26" t="s">
+      <c r="F151" s="25" t="s">
         <v>33</v>
       </c>
       <c r="G151" s="20" t="s">
@@ -6177,26 +6191,26 @@
       <c r="I151" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="J151" s="50" t="s">
+      <c r="J151" s="49" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="152" spans="1:10" ht="15" customHeight="1">
+    <row r="152" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="17"/>
       <c r="B152" s="1">
         <f t="shared" si="7"/>
         <v>26</v>
       </c>
-      <c r="C152" s="25" t="s">
+      <c r="C152" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="D152" s="41" t="s">
+      <c r="D152" s="40" t="s">
         <v>21</v>
       </c>
       <c r="E152" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F152" s="26" t="s">
+      <c r="F152" s="25" t="s">
         <v>33</v>
       </c>
       <c r="G152" s="20" t="s">
@@ -6212,13 +6226,13 @@
         <v>280</v>
       </c>
     </row>
-    <row r="153" spans="1:10" s="51" customFormat="1" ht="15" customHeight="1">
+    <row r="153" spans="1:10" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="17"/>
       <c r="B153" s="1">
         <f t="shared" si="7"/>
         <v>27</v>
       </c>
-      <c r="C153" s="25" t="s">
+      <c r="C153" s="24" t="s">
         <v>32</v>
       </c>
       <c r="D153" s="3" t="s">
@@ -6227,28 +6241,29 @@
       <c r="E153" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F153" s="26" t="s">
+      <c r="F153" s="25" t="s">
         <v>33</v>
       </c>
       <c r="G153" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H153" s="26" t="s">
+      <c r="H153" s="25" t="s">
         <v>44</v>
       </c>
       <c r="I153" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="J153" s="25" t="s">
+      <c r="J153" s="24" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="154" spans="1:10" ht="15" customHeight="1">
+    <row r="154" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="17"/>
       <c r="B154" s="1">
         <f t="shared" si="7"/>
         <v>28</v>
       </c>
-      <c r="C154" s="25" t="s">
+      <c r="C154" s="24" t="s">
         <v>32</v>
       </c>
       <c r="D154" s="3" t="s">
@@ -6273,15 +6288,16 @@
         <v>284</v>
       </c>
     </row>
-    <row r="155" spans="1:10" ht="15" customHeight="1">
+    <row r="155" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="13"/>
       <c r="B155" s="1">
         <f t="shared" si="7"/>
         <v>29</v>
       </c>
-      <c r="C155" s="53" t="s">
+      <c r="C155" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="D155" s="54" t="s">
+      <c r="D155" s="52" t="s">
         <v>20</v>
       </c>
       <c r="E155" s="20" t="s">
@@ -6299,19 +6315,20 @@
       <c r="I155" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="J155" s="40" t="s">
+      <c r="J155" s="39" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="156" spans="1:10" ht="15" customHeight="1">
+    <row r="156" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="17"/>
       <c r="B156" s="1">
         <f t="shared" si="7"/>
         <v>30</v>
       </c>
-      <c r="C156" s="53" t="s">
+      <c r="C156" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="D156" s="54" t="s">
+      <c r="D156" s="52" t="s">
         <v>20</v>
       </c>
       <c r="E156" s="20" t="s">
@@ -6329,79 +6346,82 @@
       <c r="I156" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="J156" s="40" t="s">
+      <c r="J156" s="39" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="157" spans="1:10" ht="15" customHeight="1">
+    <row r="157" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="17"/>
       <c r="B157" s="1">
         <f t="shared" si="7"/>
         <v>31</v>
       </c>
-      <c r="C157" s="25" t="s">
+      <c r="C157" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D157" s="25" t="s">
+      <c r="D157" s="24" t="s">
         <v>13</v>
       </c>
       <c r="E157" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F157" s="26" t="s">
+      <c r="F157" s="25" t="s">
         <v>33</v>
       </c>
       <c r="G157" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H157" s="26" t="s">
+      <c r="H157" s="25" t="s">
         <v>44</v>
       </c>
       <c r="I157" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="J157" s="25" t="s">
+      <c r="J157" s="24" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="158" spans="1:10" ht="15" customHeight="1">
+    <row r="158" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="17"/>
       <c r="B158" s="1">
         <f t="shared" si="7"/>
         <v>32</v>
       </c>
-      <c r="C158" s="25" t="s">
+      <c r="C158" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D158" s="25" t="s">
+      <c r="D158" s="24" t="s">
         <v>13</v>
       </c>
       <c r="E158" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F158" s="26" t="s">
+      <c r="F158" s="25" t="s">
         <v>33</v>
       </c>
       <c r="G158" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H158" s="26" t="s">
+      <c r="H158" s="25" t="s">
         <v>44</v>
       </c>
       <c r="I158" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="J158" s="25" t="s">
+      <c r="J158" s="24" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="159" spans="1:10" ht="15" customHeight="1">
+    <row r="159" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="13"/>
       <c r="B159" s="1">
         <f t="shared" si="7"/>
         <v>33</v>
       </c>
-      <c r="C159" s="53" t="s">
+      <c r="C159" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="D159" s="54" t="s">
+      <c r="D159" s="52" t="s">
         <v>20</v>
       </c>
       <c r="E159" s="20" t="s">
@@ -6419,19 +6439,20 @@
       <c r="I159" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="J159" s="40" t="s">
+      <c r="J159" s="39" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="160" spans="1:10" ht="15" customHeight="1">
+    <row r="160" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="17"/>
       <c r="B160" s="1">
         <f t="shared" si="7"/>
         <v>34</v>
       </c>
-      <c r="C160" s="53" t="s">
+      <c r="C160" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="D160" s="54" t="s">
+      <c r="D160" s="52" t="s">
         <v>20</v>
       </c>
       <c r="E160" s="20" t="s">
@@ -6449,16 +6470,17 @@
       <c r="I160" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="J160" s="40" t="s">
+      <c r="J160" s="39" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="161" spans="1:10" ht="15" customHeight="1">
+    <row r="161" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="17"/>
       <c r="B161" s="1">
         <f t="shared" si="7"/>
         <v>35</v>
       </c>
-      <c r="C161" s="55" t="s">
+      <c r="C161" s="53" t="s">
         <v>19</v>
       </c>
       <c r="D161" s="3" t="s">
@@ -6483,12 +6505,13 @@
         <v>298</v>
       </c>
     </row>
-    <row r="162" spans="1:10" ht="15" customHeight="1">
+    <row r="162" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="17"/>
       <c r="B162" s="1">
         <f t="shared" si="7"/>
         <v>36</v>
       </c>
-      <c r="C162" s="55" t="s">
+      <c r="C162" s="53" t="s">
         <v>19</v>
       </c>
       <c r="D162" s="3" t="s">
@@ -6513,56 +6536,56 @@
         <v>300</v>
       </c>
     </row>
-    <row r="163" spans="1:10" ht="15" customHeight="1">
-      <c r="C163" s="55"/>
-      <c r="D163" s="25"/>
-      <c r="E163" s="56"/>
-      <c r="F163" s="26"/>
-      <c r="G163" s="26"/>
-      <c r="I163" s="47"/>
+    <row r="163" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C163" s="53"/>
+      <c r="D163" s="24"/>
+      <c r="E163" s="54"/>
+      <c r="F163" s="25"/>
+      <c r="G163" s="25"/>
+      <c r="I163" s="46"/>
       <c r="J163" s="17"/>
     </row>
-    <row r="164" spans="1:10" ht="15" customHeight="1">
-      <c r="B164" s="25"/>
-      <c r="C164" s="25"/>
-      <c r="D164" s="25"/>
-      <c r="E164" s="56"/>
-      <c r="F164" s="26"/>
-      <c r="G164" s="26"/>
+    <row r="164" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B164" s="24"/>
+      <c r="C164" s="24"/>
+      <c r="D164" s="24"/>
+      <c r="E164" s="54"/>
+      <c r="F164" s="25"/>
+      <c r="G164" s="25"/>
       <c r="I164" s="1"/>
       <c r="J164" s="17"/>
     </row>
-    <row r="165" spans="1:10" ht="41.45" customHeight="1">
-      <c r="A165" s="27" t="s">
+    <row r="165" spans="1:10" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="26" t="s">
         <v>301</v>
       </c>
-      <c r="B165" s="28" t="s">
+      <c r="B165" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C165" s="29" t="s">
+      <c r="C165" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D165" s="29" t="s">
+      <c r="D165" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E165" s="28" t="s">
+      <c r="E165" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="F165" s="28" t="s">
+      <c r="F165" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="G165" s="28" t="s">
+      <c r="G165" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="H165" s="28" t="s">
+      <c r="H165" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="I165" s="30"/>
-      <c r="J165" s="30" t="s">
+      <c r="I165" s="29"/>
+      <c r="J165" s="29" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="166" spans="1:10" ht="15" customHeight="1">
+    <row r="166" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="13"/>
       <c r="B166" s="15">
         <v>1</v>
@@ -6583,14 +6606,14 @@
       <c r="H166" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="I166" s="31" t="s">
+      <c r="I166" s="30" t="s">
         <v>257</v>
       </c>
       <c r="J166" s="13" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="167" spans="1:10">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B167" s="1">
         <f>B166+1</f>
         <v>2</v>
@@ -6613,63 +6636,63 @@
       <c r="H167" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="I167" s="47" t="s">
+      <c r="I167" s="46" t="s">
         <v>304</v>
       </c>
       <c r="J167" s="17" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="168" spans="1:10" ht="15" customHeight="1">
-      <c r="C168" s="55"/>
-      <c r="D168" s="25"/>
-      <c r="E168" s="56"/>
-      <c r="F168" s="26"/>
-      <c r="G168" s="26"/>
-      <c r="I168" s="35"/>
+    <row r="168" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C168" s="53"/>
+      <c r="D168" s="24"/>
+      <c r="E168" s="54"/>
+      <c r="F168" s="25"/>
+      <c r="G168" s="25"/>
+      <c r="I168" s="34"/>
       <c r="J168" s="17"/>
     </row>
-    <row r="169" spans="1:10" ht="15" customHeight="1">
-      <c r="B169" s="25"/>
-      <c r="C169" s="25"/>
-      <c r="D169" s="25"/>
-      <c r="E169" s="56"/>
-      <c r="F169" s="26"/>
-      <c r="G169" s="26"/>
+    <row r="169" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B169" s="24"/>
+      <c r="C169" s="24"/>
+      <c r="D169" s="24"/>
+      <c r="E169" s="54"/>
+      <c r="F169" s="25"/>
+      <c r="G169" s="25"/>
       <c r="I169" s="1"/>
       <c r="J169" s="17"/>
     </row>
-    <row r="170" spans="1:10" ht="41.45" customHeight="1">
-      <c r="A170" s="27" t="s">
+    <row r="170" spans="1:10" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="26" t="s">
         <v>306</v>
       </c>
-      <c r="B170" s="28" t="s">
+      <c r="B170" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C170" s="29" t="s">
+      <c r="C170" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D170" s="29" t="s">
+      <c r="D170" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E170" s="28" t="s">
+      <c r="E170" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="F170" s="28" t="s">
+      <c r="F170" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="G170" s="28" t="s">
+      <c r="G170" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="H170" s="28" t="s">
+      <c r="H170" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="I170" s="30"/>
-      <c r="J170" s="30" t="s">
+      <c r="I170" s="29"/>
+      <c r="J170" s="29" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="171" spans="1:10" ht="15" customHeight="1">
+    <row r="171" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="13"/>
       <c r="B171" s="15">
         <v>1</v>
@@ -6690,14 +6713,14 @@
       <c r="H171" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="I171" s="31" t="s">
+      <c r="I171" s="30" t="s">
         <v>259</v>
       </c>
       <c r="J171" s="13" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="172" spans="1:10">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B172" s="1">
         <f>B171+1</f>
         <v>2</v>
@@ -6720,63 +6743,63 @@
       <c r="H172" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="I172" s="47" t="s">
+      <c r="I172" s="46" t="s">
         <v>309</v>
       </c>
       <c r="J172" s="17" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="173" spans="1:10" ht="15" customHeight="1">
+    <row r="173" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C173" s="18"/>
-      <c r="E173" s="35"/>
-      <c r="G173" s="35"/>
+      <c r="E173" s="34"/>
+      <c r="G173" s="34"/>
       <c r="H173" s="19"/>
-      <c r="I173" s="35"/>
+      <c r="I173" s="34"/>
       <c r="J173" s="19"/>
     </row>
-    <row r="174" spans="1:10" ht="15" customHeight="1">
-      <c r="A174" s="25"/>
-      <c r="B174" s="25"/>
-      <c r="C174" s="25"/>
-      <c r="D174" s="25"/>
-      <c r="E174" s="56"/>
-      <c r="F174" s="26"/>
-      <c r="G174" s="26"/>
-      <c r="I174" s="47"/>
+    <row r="174" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="24"/>
+      <c r="B174" s="24"/>
+      <c r="C174" s="24"/>
+      <c r="D174" s="24"/>
+      <c r="E174" s="54"/>
+      <c r="F174" s="25"/>
+      <c r="G174" s="25"/>
+      <c r="I174" s="46"/>
       <c r="J174" s="17"/>
     </row>
-    <row r="175" spans="1:10" ht="41.45" customHeight="1">
-      <c r="A175" s="27" t="s">
+    <row r="175" spans="1:10" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="26" t="s">
         <v>311</v>
       </c>
-      <c r="B175" s="28" t="s">
+      <c r="B175" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C175" s="29" t="s">
+      <c r="C175" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D175" s="29" t="s">
+      <c r="D175" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E175" s="28" t="s">
+      <c r="E175" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="F175" s="28" t="s">
+      <c r="F175" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="G175" s="28" t="s">
+      <c r="G175" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="H175" s="28" t="s">
+      <c r="H175" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="I175" s="30"/>
-      <c r="J175" s="30" t="s">
+      <c r="I175" s="29"/>
+      <c r="J175" s="29" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="176" spans="1:10" ht="15" customHeight="1">
+    <row r="176" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="13"/>
       <c r="B176" s="15">
         <v>1</v>
@@ -6797,14 +6820,14 @@
       <c r="H176" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="I176" s="39" t="s">
+      <c r="I176" s="38" t="s">
         <v>267</v>
       </c>
       <c r="J176" s="13" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="177" spans="1:10" ht="15.95" customHeight="1">
+    <row r="177" spans="1:10" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="21"/>
       <c r="B177" s="1">
         <f>B176+1</f>
@@ -6819,7 +6842,7 @@
       <c r="E177" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F177" s="26" t="s">
+      <c r="F177" s="25" t="s">
         <v>21</v>
       </c>
       <c r="G177" s="19" t="s">
@@ -6835,22 +6858,22 @@
         <v>315</v>
       </c>
     </row>
-    <row r="178" spans="1:10" ht="15.95" customHeight="1">
+    <row r="178" spans="1:10" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="21"/>
       <c r="B178" s="1">
         <f t="shared" ref="B178:B181" si="8">B177+1</f>
         <v>3</v>
       </c>
-      <c r="C178" s="55" t="s">
+      <c r="C178" s="53" t="s">
         <v>156</v>
       </c>
-      <c r="D178" s="41" t="s">
+      <c r="D178" s="40" t="s">
         <v>21</v>
       </c>
       <c r="E178" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F178" s="56" t="s">
+      <c r="F178" s="54" t="s">
         <v>21</v>
       </c>
       <c r="G178" s="20" t="s">
@@ -6866,7 +6889,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="179" spans="1:10" ht="15.95" customHeight="1">
+    <row r="179" spans="1:10" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="21"/>
       <c r="B179" s="1">
         <f t="shared" si="8"/>
@@ -6881,7 +6904,7 @@
       <c r="E179" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F179" s="26" t="s">
+      <c r="F179" s="25" t="s">
         <v>21</v>
       </c>
       <c r="G179" s="20" t="s">
@@ -6897,13 +6920,13 @@
         <v>319</v>
       </c>
     </row>
-    <row r="180" spans="1:10" ht="15.95" customHeight="1">
+    <row r="180" spans="1:10" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="21"/>
       <c r="B180" s="1">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="C180" s="25" t="s">
+      <c r="C180" s="24" t="s">
         <v>56</v>
       </c>
       <c r="D180" s="3" t="s">
@@ -6921,14 +6944,14 @@
       <c r="H180" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I180" s="33" t="s">
+      <c r="I180" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="J180" s="57" t="s">
+      <c r="J180" s="55" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="181" spans="1:10" ht="15.95" customHeight="1">
+    <row r="181" spans="1:10" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="21"/>
       <c r="B181" s="1">
         <f t="shared" si="8"/>
@@ -6937,13 +6960,13 @@
       <c r="C181" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D181" s="25" t="s">
+      <c r="D181" s="24" t="s">
         <v>13</v>
       </c>
       <c r="E181" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F181" s="26" t="s">
+      <c r="F181" s="25" t="s">
         <v>33</v>
       </c>
       <c r="G181" s="20" t="s">
@@ -6955,64 +6978,64 @@
       <c r="I181" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="J181" s="57" t="s">
+      <c r="J181" s="55" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="182" spans="1:10">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" s="21"/>
-      <c r="B182" s="58"/>
+      <c r="B182" s="56"/>
       <c r="C182" s="17"/>
-      <c r="D182" s="25"/>
+      <c r="D182" s="24"/>
       <c r="E182" s="7"/>
-      <c r="F182" s="26"/>
-      <c r="G182" s="26"/>
-      <c r="H182" s="26"/>
-      <c r="I182" s="35"/>
+      <c r="F182" s="25"/>
+      <c r="G182" s="25"/>
+      <c r="H182" s="25"/>
+      <c r="I182" s="34"/>
       <c r="J182" s="16"/>
     </row>
-    <row r="183" spans="1:10" ht="15" customHeight="1">
-      <c r="A183" s="25"/>
-      <c r="B183" s="25"/>
-      <c r="C183" s="25"/>
-      <c r="D183" s="25"/>
-      <c r="E183" s="56"/>
-      <c r="F183" s="26"/>
-      <c r="G183" s="26"/>
+    <row r="183" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="24"/>
+      <c r="B183" s="24"/>
+      <c r="C183" s="24"/>
+      <c r="D183" s="24"/>
+      <c r="E183" s="54"/>
+      <c r="F183" s="25"/>
+      <c r="G183" s="25"/>
       <c r="I183" s="1"/>
       <c r="J183" s="17"/>
     </row>
-    <row r="184" spans="1:10" ht="41.45" customHeight="1">
-      <c r="A184" s="27" t="s">
+    <row r="184" spans="1:10" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="26" t="s">
         <v>320</v>
       </c>
-      <c r="B184" s="28" t="s">
+      <c r="B184" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C184" s="29" t="s">
+      <c r="C184" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D184" s="29" t="s">
+      <c r="D184" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E184" s="28" t="s">
+      <c r="E184" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="F184" s="28" t="s">
+      <c r="F184" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="G184" s="28" t="s">
+      <c r="G184" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="H184" s="28" t="s">
+      <c r="H184" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="I184" s="30"/>
-      <c r="J184" s="30" t="s">
+      <c r="I184" s="29"/>
+      <c r="J184" s="29" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="185" spans="1:10" ht="15" customHeight="1">
+    <row r="185" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="13"/>
       <c r="B185" s="15">
         <v>1</v>
@@ -7033,14 +7056,14 @@
       <c r="H185" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="I185" s="31" t="s">
+      <c r="I185" s="30" t="s">
         <v>281</v>
       </c>
       <c r="J185" s="13" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="186" spans="1:10">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B186" s="1">
         <f>B185+1</f>
         <v>2</v>
@@ -7063,14 +7086,14 @@
       <c r="H186" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="I186" s="47" t="s">
+      <c r="I186" s="46" t="s">
         <v>323</v>
       </c>
-      <c r="J186" s="48" t="s">
+      <c r="J186" s="47" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="187" spans="1:10">
+    <row r="187" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B187" s="1">
         <f t="shared" ref="B187:B189" si="9">B186+1</f>
         <v>3</v>
@@ -7093,19 +7116,19 @@
       <c r="H187" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I187" s="47" t="s">
+      <c r="I187" s="46" t="s">
         <v>325</v>
       </c>
       <c r="J187" s="13" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="188" spans="1:10" ht="15" customHeight="1">
+    <row r="188" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B188" s="1">
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="C188" s="25" t="s">
+      <c r="C188" s="24" t="s">
         <v>56</v>
       </c>
       <c r="D188" s="3" t="s">
@@ -7123,14 +7146,14 @@
       <c r="H188" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I188" s="33" t="s">
+      <c r="I188" s="32" t="s">
         <v>58</v>
       </c>
       <c r="J188" s="17" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="189" spans="1:10" ht="15" customHeight="1">
+    <row r="189" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B189" s="1">
         <f t="shared" si="9"/>
         <v>5</v>
@@ -7138,13 +7161,13 @@
       <c r="C189" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D189" s="25" t="s">
+      <c r="D189" s="24" t="s">
         <v>13</v>
       </c>
       <c r="E189" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F189" s="26" t="s">
+      <c r="F189" s="25" t="s">
         <v>33</v>
       </c>
       <c r="G189" s="20" t="s">
@@ -7160,54 +7183,54 @@
         <v>74</v>
       </c>
     </row>
-    <row r="190" spans="1:10" ht="15" customHeight="1">
+    <row r="190" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C190" s="18"/>
-      <c r="E190" s="35"/>
-      <c r="G190" s="35"/>
+      <c r="E190" s="34"/>
+      <c r="G190" s="34"/>
       <c r="H190" s="19"/>
       <c r="I190" s="19"/>
       <c r="J190" s="19"/>
     </row>
-    <row r="191" spans="1:10" ht="15" customHeight="1">
+    <row r="191" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
-      <c r="E191" s="35"/>
-      <c r="G191" s="35"/>
+      <c r="E191" s="34"/>
+      <c r="G191" s="34"/>
       <c r="H191" s="19"/>
       <c r="I191" s="19"/>
       <c r="J191"/>
     </row>
-    <row r="192" spans="1:10" ht="41.45" customHeight="1">
-      <c r="A192" s="27" t="s">
+    <row r="192" spans="1:10" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="26" t="s">
         <v>327</v>
       </c>
-      <c r="B192" s="28" t="s">
+      <c r="B192" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C192" s="29" t="s">
+      <c r="C192" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D192" s="29" t="s">
+      <c r="D192" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E192" s="28" t="s">
+      <c r="E192" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="F192" s="28" t="s">
+      <c r="F192" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="G192" s="28" t="s">
+      <c r="G192" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="H192" s="28" t="s">
+      <c r="H192" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="I192" s="30"/>
-      <c r="J192" s="30" t="s">
+      <c r="I192" s="29"/>
+      <c r="J192" s="29" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="193" spans="1:10" ht="15" customHeight="1">
+    <row r="193" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="13"/>
       <c r="B193" s="15">
         <v>1</v>
@@ -7228,14 +7251,14 @@
       <c r="H193" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="I193" s="31" t="s">
+      <c r="I193" s="30" t="s">
         <v>328</v>
       </c>
       <c r="J193" s="13" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="194" spans="1:10">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B194" s="1">
         <f>B193+1</f>
         <v>2</v>
@@ -7258,14 +7281,14 @@
       <c r="H194" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="I194" s="47" t="s">
+      <c r="I194" s="46" t="s">
         <v>330</v>
       </c>
       <c r="J194" s="17" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="195" spans="1:10">
+    <row r="195" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B195" s="1">
         <f t="shared" ref="B195" si="10">B194+1</f>
         <v>3</v>
@@ -7288,31 +7311,31 @@
       <c r="H195" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I195" s="47" t="s">
+      <c r="I195" s="46" t="s">
         <v>332</v>
       </c>
       <c r="J195" s="17" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="196" spans="1:10" ht="15" customHeight="1">
+    <row r="196" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C196" s="18"/>
-      <c r="E196" s="35"/>
-      <c r="G196" s="35"/>
+      <c r="E196" s="34"/>
+      <c r="G196" s="34"/>
       <c r="H196" s="19"/>
       <c r="I196" s="19"/>
     </row>
-    <row r="197" spans="1:10">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C197" s="17"/>
-      <c r="D197" s="25"/>
+      <c r="D197" s="24"/>
       <c r="E197" s="7"/>
-      <c r="F197" s="26"/>
-      <c r="G197" s="26"/>
-      <c r="H197" s="26"/>
+      <c r="F197" s="25"/>
+      <c r="G197" s="25"/>
+      <c r="H197" s="25"/>
       <c r="I197" s="16"/>
       <c r="J197" s="17"/>
     </row>
-    <row r="198" spans="1:10" ht="41.45" customHeight="1">
+    <row r="198" spans="1:10" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="8" t="s">
         <v>334</v>
       </c>
@@ -7342,7 +7365,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="199" spans="1:10" ht="15" customHeight="1">
+    <row r="199" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="13"/>
       <c r="B199" s="15">
         <v>1</v>
@@ -7363,128 +7386,128 @@
       <c r="H199" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="I199" s="39" t="s">
+      <c r="I199" s="38" t="s">
         <v>336</v>
       </c>
       <c r="J199" s="3" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="200" spans="1:10" ht="15" customHeight="1">
+    <row r="200" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="17"/>
       <c r="B200" s="1">
         <f>B199+1</f>
         <v>2</v>
       </c>
-      <c r="C200" s="25" t="s">
+      <c r="C200" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D200" s="25" t="s">
+      <c r="D200" s="24" t="s">
         <v>13</v>
       </c>
       <c r="E200" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F200" s="26" t="s">
+      <c r="F200" s="25" t="s">
         <v>33</v>
       </c>
       <c r="G200" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H200" s="26" t="s">
+      <c r="H200" s="25" t="s">
         <v>44</v>
       </c>
       <c r="I200" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="J200" s="59" t="s">
+      <c r="J200" s="57" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="201" spans="1:10" ht="15" customHeight="1">
+    <row r="201" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="17"/>
       <c r="B201" s="1">
         <f t="shared" ref="B201:B211" si="11">B200+1</f>
         <v>3</v>
       </c>
-      <c r="C201" s="25" t="s">
+      <c r="C201" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D201" s="25" t="s">
+      <c r="D201" s="24" t="s">
         <v>13</v>
       </c>
       <c r="E201" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F201" s="26" t="s">
+      <c r="F201" s="25" t="s">
         <v>33</v>
       </c>
       <c r="G201" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H201" s="26" t="s">
+      <c r="H201" s="25" t="s">
         <v>44</v>
       </c>
       <c r="I201" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="J201" s="59" t="s">
+      <c r="J201" s="57" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="202" spans="1:10" ht="15" customHeight="1">
+    <row r="202" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="17"/>
       <c r="B202" s="1">
         <f t="shared" si="11"/>
         <v>4</v>
       </c>
-      <c r="C202" s="25" t="s">
+      <c r="C202" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D202" s="25" t="s">
+      <c r="D202" s="24" t="s">
         <v>13</v>
       </c>
       <c r="E202" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F202" s="26" t="s">
+      <c r="F202" s="25" t="s">
         <v>33</v>
       </c>
       <c r="G202" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H202" s="26" t="s">
+      <c r="H202" s="25" t="s">
         <v>44</v>
       </c>
       <c r="I202" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="J202" s="59" t="s">
+      <c r="J202" s="57" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="203" spans="1:10" ht="15" customHeight="1">
+    <row r="203" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="17"/>
       <c r="B203" s="1">
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="C203" s="25" t="s">
+      <c r="C203" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D203" s="25" t="s">
+      <c r="D203" s="24" t="s">
         <v>13</v>
       </c>
       <c r="E203" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F203" s="26" t="s">
+      <c r="F203" s="25" t="s">
         <v>33</v>
       </c>
       <c r="G203" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H203" s="26" t="s">
+      <c r="H203" s="25" t="s">
         <v>44</v>
       </c>
       <c r="I203" s="16" t="s">
@@ -7494,16 +7517,16 @@
         <v>342</v>
       </c>
     </row>
-    <row r="204" spans="1:10" ht="15" customHeight="1">
+    <row r="204" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="17"/>
       <c r="B204" s="1">
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
-      <c r="C204" s="25" t="s">
+      <c r="C204" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D204" s="25" t="s">
+      <c r="D204" s="24" t="s">
         <v>13</v>
       </c>
       <c r="E204" s="20" t="s">
@@ -7525,12 +7548,12 @@
         <v>344</v>
       </c>
     </row>
-    <row r="205" spans="1:10" ht="15" customHeight="1">
+    <row r="205" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B205" s="1">
         <f t="shared" si="11"/>
         <v>7</v>
       </c>
-      <c r="C205" s="25" t="s">
+      <c r="C205" s="24" t="s">
         <v>19</v>
       </c>
       <c r="D205" s="3" t="s">
@@ -7545,7 +7568,7 @@
       <c r="G205" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H205" s="26" t="s">
+      <c r="H205" s="25" t="s">
         <v>16</v>
       </c>
       <c r="I205" s="16" t="s">
@@ -7555,13 +7578,13 @@
         <v>346</v>
       </c>
     </row>
-    <row r="206" spans="1:10" ht="15" customHeight="1">
+    <row r="206" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="17"/>
       <c r="B206" s="1">
         <f t="shared" si="11"/>
         <v>8</v>
       </c>
-      <c r="C206" s="25" t="s">
+      <c r="C206" s="24" t="s">
         <v>19</v>
       </c>
       <c r="D206" s="3" t="s">
@@ -7582,17 +7605,17 @@
       <c r="I206" s="23" t="s">
         <v>347</v>
       </c>
-      <c r="J206" s="59" t="s">
+      <c r="J206" s="57" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="207" spans="1:10" ht="15" customHeight="1">
+    <row r="207" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="17"/>
       <c r="B207" s="1">
         <f t="shared" si="11"/>
         <v>9</v>
       </c>
-      <c r="C207" s="54" t="s">
+      <c r="C207" s="52" t="s">
         <v>24</v>
       </c>
       <c r="D207" s="3" t="s">
@@ -7613,16 +7636,16 @@
       <c r="I207" s="23" t="s">
         <v>349</v>
       </c>
-      <c r="J207" s="59" t="s">
+      <c r="J207" s="57" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="208" spans="1:10" ht="15" customHeight="1">
+    <row r="208" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B208" s="1">
         <f t="shared" si="11"/>
         <v>10</v>
       </c>
-      <c r="C208" s="54" t="s">
+      <c r="C208" s="52" t="s">
         <v>24</v>
       </c>
       <c r="D208" s="3" t="s">
@@ -7637,7 +7660,7 @@
       <c r="G208" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H208" s="26" t="s">
+      <c r="H208" s="25" t="s">
         <v>16</v>
       </c>
       <c r="I208" s="23" t="s">
@@ -7647,28 +7670,28 @@
         <v>352</v>
       </c>
     </row>
-    <row r="209" spans="1:10" ht="15" customHeight="1">
+    <row r="209" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="17"/>
       <c r="B209" s="1">
         <f t="shared" si="11"/>
         <v>11</v>
       </c>
-      <c r="C209" s="25" t="s">
+      <c r="C209" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D209" s="25" t="s">
+      <c r="D209" s="24" t="s">
         <v>13</v>
       </c>
       <c r="E209" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F209" s="26" t="s">
+      <c r="F209" s="25" t="s">
         <v>33</v>
       </c>
       <c r="G209" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H209" s="26" t="s">
+      <c r="H209" s="25" t="s">
         <v>44</v>
       </c>
       <c r="I209" s="23" t="s">
@@ -7678,13 +7701,13 @@
         <v>354</v>
       </c>
     </row>
-    <row r="210" spans="1:10" ht="15" customHeight="1">
+    <row r="210" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="17"/>
       <c r="B210" s="1">
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="C210" s="25" t="s">
+      <c r="C210" s="24" t="s">
         <v>32</v>
       </c>
       <c r="D210" s="3" t="s">
@@ -7699,7 +7722,7 @@
       <c r="G210" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H210" s="26" t="s">
+      <c r="H210" s="25" t="s">
         <v>16</v>
       </c>
       <c r="I210" s="23" t="s">
@@ -7709,13 +7732,13 @@
         <v>357</v>
       </c>
     </row>
-    <row r="211" spans="1:10" ht="15" customHeight="1">
+    <row r="211" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="17"/>
       <c r="B211" s="1">
         <f t="shared" si="11"/>
         <v>13</v>
       </c>
-      <c r="C211" s="25" t="s">
+      <c r="C211" s="24" t="s">
         <v>24</v>
       </c>
       <c r="D211" s="3" t="s">
@@ -7730,7 +7753,7 @@
       <c r="G211" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H211" s="26" t="s">
+      <c r="H211" s="25" t="s">
         <v>16</v>
       </c>
       <c r="I211" s="23" t="s">
@@ -7740,59 +7763,59 @@
         <v>359</v>
       </c>
     </row>
-    <row r="212" spans="1:10" ht="15" customHeight="1">
+    <row r="212" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="17"/>
       <c r="B212" s="7"/>
-      <c r="C212" s="25"/>
-      <c r="D212" s="25"/>
-      <c r="E212" s="26"/>
-      <c r="F212" s="26"/>
-      <c r="G212" s="26"/>
-      <c r="H212" s="26"/>
-      <c r="I212" s="60"/>
+      <c r="C212" s="24"/>
+      <c r="D212" s="24"/>
+      <c r="E212" s="25"/>
+      <c r="F212" s="25"/>
+      <c r="G212" s="25"/>
+      <c r="H212" s="25"/>
+      <c r="I212" s="58"/>
       <c r="J212" s="3"/>
     </row>
-    <row r="213" spans="1:10" ht="15" customHeight="1">
-      <c r="C213" s="54"/>
-      <c r="D213" s="54"/>
-      <c r="E213" s="26"/>
-      <c r="F213" s="26"/>
-      <c r="G213" s="26"/>
-      <c r="H213" s="26"/>
+    <row r="213" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C213" s="52"/>
+      <c r="D213" s="52"/>
+      <c r="E213" s="25"/>
+      <c r="F213" s="25"/>
+      <c r="G213" s="25"/>
+      <c r="H213" s="25"/>
       <c r="I213" s="3"/>
       <c r="J213" s="3"/>
     </row>
-    <row r="214" spans="1:10" s="62" customFormat="1" ht="41.45" customHeight="1">
-      <c r="A214" s="61" t="s">
+    <row r="214" spans="1:10" s="60" customFormat="1" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="59" t="s">
         <v>360</v>
       </c>
-      <c r="B214" s="28" t="s">
+      <c r="B214" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C214" s="29" t="s">
+      <c r="C214" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D214" s="29" t="s">
+      <c r="D214" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E214" s="28" t="s">
+      <c r="E214" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="F214" s="28" t="s">
+      <c r="F214" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="G214" s="28" t="s">
+      <c r="G214" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="H214" s="28" t="s">
+      <c r="H214" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="I214" s="29"/>
-      <c r="J214" s="29" t="s">
+      <c r="I214" s="28"/>
+      <c r="J214" s="28" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="215" spans="1:10" ht="15" customHeight="1">
+    <row r="215" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="13"/>
       <c r="B215" s="15">
         <v>1</v>
@@ -7813,20 +7836,20 @@
       <c r="H215" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="I215" s="39" t="s">
+      <c r="I215" s="38" t="s">
         <v>353</v>
       </c>
       <c r="J215" s="13" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="216" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A216" s="63"/>
+    <row r="216" spans="1:10" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="61"/>
       <c r="B216" s="1">
         <f>B215+1</f>
         <v>2</v>
       </c>
-      <c r="C216" s="63" t="s">
+      <c r="C216" s="61" t="s">
         <v>19</v>
       </c>
       <c r="D216" s="3" t="s">
@@ -7841,23 +7864,23 @@
       <c r="G216" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H216" s="64" t="s">
+      <c r="H216" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="I216" s="65" t="s">
+      <c r="I216" s="63" t="s">
         <v>363</v>
       </c>
-      <c r="J216" s="42" t="s">
+      <c r="J216" s="41" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="217" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A217" s="63"/>
+    <row r="217" spans="1:10" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="61"/>
       <c r="B217" s="1">
         <f t="shared" ref="B217:B220" si="12">B216+1</f>
         <v>3</v>
       </c>
-      <c r="C217" s="54" t="s">
+      <c r="C217" s="52" t="s">
         <v>24</v>
       </c>
       <c r="D217" s="3" t="s">
@@ -7875,15 +7898,15 @@
       <c r="H217" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I217" s="65" t="s">
+      <c r="I217" s="63" t="s">
         <v>365</v>
       </c>
       <c r="J217" s="13" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="218" spans="1:10" ht="15" customHeight="1">
-      <c r="A218" s="66"/>
+    <row r="218" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="64"/>
       <c r="B218" s="1">
         <f t="shared" si="12"/>
         <v>4</v>
@@ -7903,23 +7926,23 @@
       <c r="G218" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H218" s="67" t="s">
+      <c r="H218" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="I218" s="33" t="s">
+      <c r="I218" s="32" t="s">
         <v>367</v>
       </c>
       <c r="J218" s="3" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="219" spans="1:10" ht="15" customHeight="1">
-      <c r="A219" s="66"/>
+    <row r="219" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A219" s="64"/>
       <c r="B219" s="1">
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="C219" s="25" t="s">
+      <c r="C219" s="24" t="s">
         <v>56</v>
       </c>
       <c r="D219" s="3" t="s">
@@ -7937,15 +7960,15 @@
       <c r="H219" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I219" s="33" t="s">
+      <c r="I219" s="32" t="s">
         <v>58</v>
       </c>
       <c r="J219" s="17" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="220" spans="1:10" ht="15" customHeight="1">
-      <c r="A220" s="63"/>
+    <row r="220" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A220" s="61"/>
       <c r="B220" s="1">
         <f t="shared" si="12"/>
         <v>6</v>
@@ -7953,13 +7976,13 @@
       <c r="C220" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D220" s="25" t="s">
+      <c r="D220" s="24" t="s">
         <v>13</v>
       </c>
       <c r="E220" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F220" s="26" t="s">
+      <c r="F220" s="25" t="s">
         <v>33</v>
       </c>
       <c r="G220" s="20" t="s">
@@ -7975,8 +7998,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="221" spans="1:10" ht="15" customHeight="1">
-      <c r="A221" s="63"/>
+    <row r="221" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="61"/>
       <c r="C221" s="17"/>
       <c r="E221" s="20"/>
       <c r="F221" s="20"/>
@@ -7985,43 +8008,43 @@
       <c r="I221" s="16"/>
       <c r="J221" s="17"/>
     </row>
-    <row r="222" spans="1:10" ht="15" customHeight="1">
+    <row r="222" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
-      <c r="H222" s="68"/>
+      <c r="H222" s="66"/>
       <c r="I222" s="3"/>
     </row>
-    <row r="223" spans="1:10" ht="41.45" customHeight="1">
-      <c r="A223" s="27" t="s">
+    <row r="223" spans="1:10" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="26" t="s">
         <v>369</v>
       </c>
-      <c r="B223" s="28" t="s">
+      <c r="B223" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C223" s="29" t="s">
+      <c r="C223" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D223" s="29" t="s">
+      <c r="D223" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E223" s="28" t="s">
+      <c r="E223" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="F223" s="28" t="s">
+      <c r="F223" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="G223" s="28" t="s">
+      <c r="G223" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="H223" s="28" t="s">
+      <c r="H223" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="I223" s="29"/>
-      <c r="J223" s="29" t="s">
+      <c r="I223" s="28"/>
+      <c r="J223" s="28" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="224" spans="1:10" ht="15" customHeight="1">
+    <row r="224" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="13"/>
       <c r="B224" s="15">
         <v>1</v>
@@ -8042,14 +8065,14 @@
       <c r="H224" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="I224" s="39" t="s">
+      <c r="I224" s="38" t="s">
         <v>341</v>
       </c>
       <c r="J224" s="3" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="225" spans="1:14" ht="15" customHeight="1">
+    <row r="225" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B225" s="1">
         <f>B224+1</f>
         <v>2</v>
@@ -8069,7 +8092,7 @@
       <c r="G225" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H225" s="26" t="s">
+      <c r="H225" s="25" t="s">
         <v>16</v>
       </c>
       <c r="I225" s="16" t="s">
@@ -8079,7 +8102,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="226" spans="1:14" ht="15" customHeight="1">
+    <row r="226" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="21"/>
       <c r="B226" s="1">
         <f t="shared" ref="B226:B228" si="13">B225+1</f>
@@ -8100,7 +8123,7 @@
       <c r="G226" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H226" s="26" t="s">
+      <c r="H226" s="25" t="s">
         <v>16</v>
       </c>
       <c r="I226" s="16" t="s">
@@ -8110,7 +8133,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="227" spans="1:14" ht="15" customHeight="1">
+    <row r="227" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="21"/>
       <c r="B227" s="1">
         <f t="shared" si="13"/>
@@ -8131,7 +8154,7 @@
       <c r="G227" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H227" s="26" t="s">
+      <c r="H227" s="25" t="s">
         <v>16</v>
       </c>
       <c r="I227" s="16" t="s">
@@ -8141,7 +8164,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="228" spans="1:14" ht="15.6" customHeight="1">
+    <row r="228" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B228" s="1">
         <f t="shared" si="13"/>
         <v>5</v>
@@ -8164,7 +8187,7 @@
       <c r="H228" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I228" s="37" t="s">
+      <c r="I228" s="36" t="s">
         <v>378</v>
       </c>
       <c r="J228" s="2" t="s">
@@ -8175,9 +8198,6 @@
       <c r="M228" s="17"/>
       <c r="N228" s="17"/>
     </row>
-    <row r="229" spans="1:14" ht="15.75"/>
-    <row r="230" spans="1:14" ht="15.75"/>
-    <row r="231" spans="1:14" ht="15.75"/>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="18" fitToHeight="0" orientation="portrait" r:id="rId1"/>
